--- a/PG.xlsx
+++ b/PG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDAF3FF4-48DB-4092-8D69-1E1D7097ED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D09325-3001-4EFD-9F1F-BC6F4563CA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="60" windowWidth="14235" windowHeight="15495" xr2:uid="{80709D9E-E9BE-419C-B9E2-6B5433088B08}"/>
+    <workbookView xWindow="14475" yWindow="30" windowWidth="14235" windowHeight="15495" activeTab="1" xr2:uid="{80709D9E-E9BE-419C-B9E2-6B5433088B08}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
   <si>
     <t>Revenue</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Revenue y/y</t>
   </si>
   <si>
-    <t>Q324</t>
-  </si>
-  <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -136,18 +130,6 @@
   </si>
   <si>
     <t>FQ122</t>
-  </si>
-  <si>
-    <t>FQ421</t>
-  </si>
-  <si>
-    <t>FQ321</t>
-  </si>
-  <si>
-    <t>FQ221</t>
-  </si>
-  <si>
-    <t>FQ121</t>
   </si>
   <si>
     <t>Net cash</t>
@@ -512,16 +494,109 @@
   <si>
     <t>Upside</t>
   </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FY14</t>
+  </si>
+  <si>
+    <t>FY15</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>FY34</t>
+  </si>
+  <si>
+    <t>FY35</t>
+  </si>
+  <si>
+    <t>FY36</t>
+  </si>
+  <si>
+    <t>FY37</t>
+  </si>
+  <si>
+    <t>FY38</t>
+  </si>
+  <si>
+    <t>FY39</t>
+  </si>
+  <si>
+    <t>FQ235</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="d/mm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="0\x"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0\x"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -539,6 +614,11 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="arial"/>
       <family val="2"/>
     </font>
@@ -569,10 +649,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -580,8 +659,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,10 +671,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,16 +711,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -642,8 +735,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="9525"/>
-          <a:ext cx="0" cy="12287250"/>
+          <a:off x="10267950" y="0"/>
+          <a:ext cx="0" cy="14230350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1036,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5139B127-54E8-4441-97C4-EC48FD81BB82}">
-  <dimension ref="B3:L25"/>
+  <dimension ref="B3:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,204 +1142,216 @@
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>170.63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="L3" s="21">
+        <v>165.73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1">
-        <v>2344.8518140000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <f>+Model!P25</f>
+        <v>2449.8000000000002</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1">
         <f>+L3*L4</f>
-        <v>400102.06502282002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>406005.35399999999</v>
+      </c>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <f>+Model!P35</f>
+        <v>9116</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1">
+        <f>+Model!P45</f>
+        <v>34141</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
         <v>20</v>
-      </c>
-      <c r="L6" s="1">
-        <v>10230</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="1">
-        <f>9424+25263</f>
-        <v>34687</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K8" t="s">
-        <v>22</v>
       </c>
       <c r="L8" s="1">
         <f>+L5-L6+L7</f>
-        <v>424559.06502282002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+        <v>431030.35399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L9" s="1">
-        <v>15542</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L10" s="15">
+        <v>15607</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L10" s="13">
         <f>+L8/L9</f>
-        <v>27.316887467688844</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16" t="s">
+        <v>27.617758313577241</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="10"/>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
-      <c r="C20" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1258,11 +1363,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88E6015-9C8F-4773-8B03-7414F45CA1E5}">
   <dimension ref="A1:EO82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1271,234 +1376,210 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="8">
+    <row r="1" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7">
         <v>44469</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="7">
         <v>44561</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="7">
         <v>44651</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="7">
         <v>44742</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="7">
         <v>44834</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="7">
         <v>44926</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7">
         <v>45016</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="7">
         <v>45107</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="7">
         <v>45199</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="7">
         <v>45291</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="7">
         <v>45382</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="7">
         <v>45473</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <v>45565</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="7">
         <v>45657</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="P1" s="7">
+        <v>45747</v>
+      </c>
+      <c r="AA1" s="7">
         <v>44742</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="7">
         <v>45107</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="7">
         <v>45473</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2014</v>
-      </c>
-      <c r="T2" s="2">
-        <f>+S2+1</f>
-        <v>2015</v>
-      </c>
-      <c r="U2" s="2">
-        <f t="shared" ref="U2:AS2" si="0">+T2+1</f>
-        <v>2016</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="W2" s="2">
-        <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="X2" s="2">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="Y2" s="2">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="Z2" s="2">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="AA2" s="2">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="AB2" s="2">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="AC2" s="2">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="AD2" s="2">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="AE2" s="2">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="AF2" s="2">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="AG2" s="2">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="AH2" s="2">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="AI2" s="2">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="AJ2" s="2">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="AK2" s="2">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="AL2" s="2">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="AM2" s="2">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="AN2" s="2">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="AO2" s="2">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="AP2" s="2">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="AQ2" s="2">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="AR2" s="2">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="AS2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="S2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="A3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
       <c r="AA3" s="1">
         <v>36500</v>
       </c>
@@ -1509,55 +1590,55 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="AB4" s="4">
+    <row r="4" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="AB4" s="3">
         <f>+AB3/AA3-1</f>
         <v>6.02739726027397E-2</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="3">
         <f>+AC3/AB3-1</f>
         <v>4.6511627906976827E-2</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="A5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
       <c r="AA5" s="1">
         <v>43700</v>
       </c>
@@ -1568,80 +1649,85 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB6" s="4">
+    <row r="6" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB6" s="3">
         <f>+AB5/AA5-1</f>
         <v>-9.1533180778031742E-3</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="3">
         <f>+AC5/AB5-1</f>
         <v>4.6189376443417363E-3</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="A8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>3961</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>3807</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>3494</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f>+AB8-SUM(F8:H8)</f>
         <v>3746</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>4097</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>3849</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>3550</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <f>+AC8-SUM(J8:L8)</f>
         <v>3724</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>3892</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>3848</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="2">
+        <v>3490</v>
+      </c>
+      <c r="Q8" s="20">
+        <f>+P8/O8-1</f>
+        <v>-9.3035343035342999E-2</v>
+      </c>
       <c r="AA8" s="1">
         <v>14740</v>
       </c>
@@ -1653,47 +1739,52 @@
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="A9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>1625</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="19">
         <v>1643</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="19">
         <v>1495</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" ref="I9:I13" si="1">+AB9-SUM(F9:H9)</f>
+      <c r="I9" s="19">
+        <f t="shared" ref="I9:I13" si="0">+AB9-SUM(F9:H9)</f>
         <v>1656</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="19">
         <v>1724</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="19">
         <v>1734</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="19">
         <v>1539</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" ref="M9:M13" si="2">+AC9-SUM(J9:L9)</f>
+      <c r="M9" s="19">
+        <f t="shared" ref="M9:M13" si="1">+AC9-SUM(J9:L9)</f>
         <v>1657</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="19">
         <v>1723</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="19">
         <v>1752</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="19">
+        <v>1505</v>
+      </c>
+      <c r="Q9" s="20">
+        <f>+P9/O9-1</f>
+        <v>-0.14098173515981738</v>
+      </c>
       <c r="AA9" s="1">
         <v>6587</v>
       </c>
@@ -1705,47 +1796,52 @@
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="A10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>2757</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>3051</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>2828</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3074</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3172</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2873</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
-        <v>2590</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3074</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3172</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2873</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="2"/>
         <v>2674</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>3147</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>3249</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="2">
+        <v>2880</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" ref="Q10:Q12" si="2">+P10/O10-1</f>
+        <v>-0.11357340720221609</v>
+      </c>
       <c r="AA10" s="1">
         <v>10824</v>
       </c>
@@ -1757,47 +1853,52 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="A11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>7082</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>7032</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>7016</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>7241</v>
+      </c>
+      <c r="J11" s="2">
+        <v>7646</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7415</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7169</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="1"/>
-        <v>7241</v>
-      </c>
-      <c r="J11" s="3">
-        <v>7646</v>
-      </c>
-      <c r="K11" s="3">
-        <v>7415</v>
-      </c>
-      <c r="L11" s="3">
-        <v>7169</v>
-      </c>
-      <c r="M11" s="3">
+        <v>7265</v>
+      </c>
+      <c r="N11" s="2">
+        <v>7710</v>
+      </c>
+      <c r="O11" s="2">
+        <v>7575</v>
+      </c>
+      <c r="P11" s="2">
+        <v>6948</v>
+      </c>
+      <c r="Q11" s="20">
         <f t="shared" si="2"/>
-        <v>7265</v>
-      </c>
-      <c r="N11" s="3">
-        <v>7710</v>
-      </c>
-      <c r="O11" s="3">
-        <v>7575</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+        <v>-8.2772277227722735E-2</v>
+      </c>
       <c r="AA11" s="1">
         <v>27556</v>
       </c>
@@ -1809,47 +1910,52 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="A12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>4934</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>5065</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>5062</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>5156</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5186</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5146</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4936</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="1"/>
-        <v>5156</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5186</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5146</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4936</v>
-      </c>
-      <c r="M12" s="3">
+        <v>5009</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5102</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5298</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4755</v>
+      </c>
+      <c r="Q12" s="20">
         <f t="shared" si="2"/>
-        <v>5009</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5102</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5298</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+        <v>-0.10249150622876557</v>
+      </c>
       <c r="AA12" s="1">
         <v>19736</v>
       </c>
@@ -1861,47 +1967,49 @@
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="A13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>253</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>175</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>173</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="J13" s="2">
+        <v>144</v>
+      </c>
+      <c r="K13" s="2">
+        <v>126</v>
+      </c>
+      <c r="L13" s="2">
+        <v>128</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="J13" s="3">
-        <v>144</v>
-      </c>
-      <c r="K13" s="3">
-        <v>126</v>
-      </c>
-      <c r="L13" s="3">
-        <v>128</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>163</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>159</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="2">
+        <v>198</v>
+      </c>
+      <c r="Q13" s="12"/>
       <c r="AA13" s="1">
         <v>744</v>
       </c>
@@ -1913,159 +2021,163 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>20338</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>20953</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>19381</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>+AA15-SUM(B15:D15)</f>
         <v>19515</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>20612</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>20773</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>20068</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f>+AB15-SUM(F15:H15)</f>
         <v>20553</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>21871</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>21441</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>20195</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <f>+AC15-SUM(J15:L15)</f>
         <v>20532</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>21737</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>21882</v>
       </c>
-      <c r="U15" s="6">
+      <c r="P15" s="5">
+        <f>+SUM(P8:P13)</f>
+        <v>19776</v>
+      </c>
+      <c r="U15" s="5">
         <v>65299</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>65058</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>66832</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>67684</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="5">
         <v>70950</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="5">
         <v>76118</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="5">
         <v>80187</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="5">
         <v>82006</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="5">
         <v>84039</v>
       </c>
-      <c r="AD15" s="6">
-        <f>+AC15*1.03</f>
-        <v>86560.17</v>
-      </c>
-      <c r="AE15" s="6">
-        <f t="shared" ref="AE15:AR15" si="3">+AD15*1.03</f>
-        <v>89156.975099999996</v>
-      </c>
-      <c r="AF15" s="6">
+      <c r="AD15" s="5">
+        <f>+AC15*1.02</f>
+        <v>85719.78</v>
+      </c>
+      <c r="AE15" s="5">
+        <f t="shared" ref="AE15:AR15" si="3">+AD15*1.02</f>
+        <v>87434.175600000002</v>
+      </c>
+      <c r="AF15" s="5">
         <f t="shared" si="3"/>
-        <v>91831.684353000004</v>
-      </c>
-      <c r="AG15" s="6">
+        <v>89182.859112000006</v>
+      </c>
+      <c r="AG15" s="5">
         <f t="shared" si="3"/>
-        <v>94586.634883590013</v>
-      </c>
-      <c r="AH15" s="6">
+        <v>90966.516294240006</v>
+      </c>
+      <c r="AH15" s="5">
         <f t="shared" si="3"/>
-        <v>97424.233930097718</v>
-      </c>
-      <c r="AI15" s="6">
+        <v>92785.846620124808</v>
+      </c>
+      <c r="AI15" s="5">
         <f t="shared" si="3"/>
-        <v>100346.96094800065</v>
-      </c>
-      <c r="AJ15" s="6">
+        <v>94641.56355252731</v>
+      </c>
+      <c r="AJ15" s="5">
         <f t="shared" si="3"/>
-        <v>103357.36977644067</v>
-      </c>
-      <c r="AK15" s="6">
+        <v>96534.394823577852</v>
+      </c>
+      <c r="AK15" s="5">
         <f t="shared" si="3"/>
-        <v>106458.09086973389</v>
-      </c>
-      <c r="AL15" s="6">
+        <v>98465.08272004941</v>
+      </c>
+      <c r="AL15" s="5">
         <f t="shared" si="3"/>
-        <v>109651.83359582591</v>
-      </c>
-      <c r="AM15" s="6">
+        <v>100434.3843744504</v>
+      </c>
+      <c r="AM15" s="5">
         <f t="shared" si="3"/>
-        <v>112941.38860370069</v>
-      </c>
-      <c r="AN15" s="6">
+        <v>102443.07206193941</v>
+      </c>
+      <c r="AN15" s="5">
         <f t="shared" si="3"/>
-        <v>116329.63026181172</v>
-      </c>
-      <c r="AO15" s="6">
+        <v>104491.9335031782</v>
+      </c>
+      <c r="AO15" s="5">
         <f t="shared" si="3"/>
-        <v>119819.51916966608</v>
-      </c>
-      <c r="AP15" s="6">
+        <v>106581.77217324176</v>
+      </c>
+      <c r="AP15" s="5">
         <f t="shared" si="3"/>
-        <v>123414.10474475606</v>
-      </c>
-      <c r="AQ15" s="6">
+        <v>108713.40761670659</v>
+      </c>
+      <c r="AQ15" s="5">
         <f t="shared" si="3"/>
-        <v>127116.52788709874</v>
-      </c>
-      <c r="AR15" s="6">
+        <v>110887.67576904072</v>
+      </c>
+      <c r="AR15" s="5">
         <f t="shared" si="3"/>
-        <v>130930.02372371171</v>
+        <v>113105.42928442154</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
@@ -2081,7 +2193,7 @@
       <c r="D16" s="1">
         <v>10326</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="1">
         <f>+AA16-SUM(B16:D16)</f>
         <v>10802</v>
       </c>
@@ -2094,7 +2206,7 @@
       <c r="H16" s="1">
         <v>10404</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="1">
         <f>+AB16-SUM(F16:H16)</f>
         <v>10613</v>
       </c>
@@ -2107,7 +2219,7 @@
       <c r="L16" s="1">
         <v>9855</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="1">
         <f>+AC16-SUM(J16:L16)</f>
         <v>10348</v>
       </c>
@@ -2117,6 +2229,9 @@
       <c r="O16" s="1">
         <v>10418</v>
       </c>
+      <c r="P16" s="1">
+        <v>9694</v>
+      </c>
       <c r="U16" s="1">
         <v>32909</v>
       </c>
@@ -2145,64 +2260,64 @@
         <v>40848</v>
       </c>
       <c r="AD16" s="1">
-        <f>+AC16*1.025</f>
-        <v>41869.199999999997</v>
+        <f>+AC16*1.015</f>
+        <v>41460.719999999994</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" ref="AE16:AR16" si="4">+AD16*1.025</f>
-        <v>42915.929999999993</v>
+        <f t="shared" ref="AE16:AR16" si="4">+AD16*1.015</f>
+        <v>42082.630799999992</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="4"/>
-        <v>43988.828249999991</v>
+        <v>42713.870261999989</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="4"/>
-        <v>45088.548956249986</v>
+        <v>43354.578315929983</v>
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="4"/>
-        <v>46215.762680156229</v>
+        <v>44004.896990668931</v>
       </c>
       <c r="AI16" s="1">
         <f t="shared" si="4"/>
-        <v>47371.15674716013</v>
+        <v>44664.970445528961</v>
       </c>
       <c r="AJ16" s="1">
         <f t="shared" si="4"/>
-        <v>48555.435665839126</v>
+        <v>45334.945002211891</v>
       </c>
       <c r="AK16" s="1">
         <f t="shared" si="4"/>
-        <v>49769.321557485098</v>
+        <v>46014.969177245068</v>
       </c>
       <c r="AL16" s="1">
         <f t="shared" si="4"/>
-        <v>51013.554596422218</v>
+        <v>46705.19371490374</v>
       </c>
       <c r="AM16" s="1">
         <f t="shared" si="4"/>
-        <v>52288.893461332773</v>
+        <v>47405.771620627289</v>
       </c>
       <c r="AN16" s="1">
         <f t="shared" si="4"/>
-        <v>53596.115797866085</v>
+        <v>48116.858194936693</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="4"/>
-        <v>54936.01869281273</v>
+        <v>48838.611067860737</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="4"/>
-        <v>56309.419160133046</v>
+        <v>49571.190233878646</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="4"/>
-        <v>57717.154639136366</v>
+        <v>50314.758087386821</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="4"/>
-        <v>59160.083505114773</v>
+        <v>51069.47945869762</v>
       </c>
     </row>
     <row r="17" spans="1:145" x14ac:dyDescent="0.2">
@@ -2210,156 +2325,160 @@
         <v>2</v>
       </c>
       <c r="B17" s="1">
-        <f>+B15-B16</f>
+        <f t="shared" ref="B17:P17" si="5">+B15-B16</f>
         <v>9973</v>
       </c>
       <c r="C17" s="1">
-        <f>+C15-C16</f>
+        <f t="shared" si="5"/>
         <v>10289</v>
       </c>
       <c r="D17" s="1">
-        <f>+D15-D16</f>
+        <f t="shared" si="5"/>
         <v>9055</v>
       </c>
       <c r="E17" s="1">
-        <f>+E15-E16</f>
+        <f t="shared" si="5"/>
         <v>8713</v>
       </c>
       <c r="F17" s="1">
-        <f>+F15-F16</f>
+        <f t="shared" si="5"/>
         <v>9766</v>
       </c>
       <c r="G17" s="1">
-        <f>+G15-G16</f>
+        <f t="shared" si="5"/>
         <v>9876</v>
       </c>
       <c r="H17" s="1">
-        <f>+H15-H16</f>
+        <f t="shared" si="5"/>
         <v>9664</v>
       </c>
       <c r="I17" s="1">
-        <f>+I15-I16</f>
+        <f t="shared" si="5"/>
         <v>9940</v>
       </c>
       <c r="J17" s="1">
-        <f>+J15-J16</f>
+        <f t="shared" si="5"/>
         <v>11370</v>
       </c>
       <c r="K17" s="1">
-        <f>+K15-K16</f>
+        <f t="shared" si="5"/>
         <v>11297</v>
       </c>
       <c r="L17" s="1">
-        <f>+L15-L16</f>
+        <f t="shared" si="5"/>
         <v>10340</v>
       </c>
       <c r="M17" s="1">
-        <f>+M15-M16</f>
+        <f t="shared" si="5"/>
         <v>10184</v>
       </c>
       <c r="N17" s="1">
-        <f>+N15-N16</f>
+        <f t="shared" si="5"/>
         <v>11316</v>
       </c>
       <c r="O17" s="1">
-        <f>+O15-O16</f>
+        <f t="shared" si="5"/>
         <v>11464</v>
       </c>
+      <c r="P17" s="1">
+        <f t="shared" si="5"/>
+        <v>10082</v>
+      </c>
       <c r="U17" s="1">
-        <f>+U15-U16</f>
+        <f t="shared" ref="U17:AC17" si="6">+U15-U16</f>
         <v>32390</v>
       </c>
       <c r="V17" s="1">
-        <f>+V15-V16</f>
+        <f t="shared" si="6"/>
         <v>32523</v>
       </c>
       <c r="W17" s="1">
-        <f>+W15-W16</f>
+        <f t="shared" si="6"/>
         <v>32564</v>
       </c>
       <c r="X17" s="1">
-        <f>+X15-X16</f>
+        <f t="shared" si="6"/>
         <v>32916</v>
       </c>
       <c r="Y17" s="1">
-        <f>+Y15-Y16</f>
+        <f t="shared" si="6"/>
         <v>35700</v>
       </c>
       <c r="Z17" s="1">
-        <f>+Z15-Z16</f>
+        <f t="shared" si="6"/>
         <v>39010</v>
       </c>
       <c r="AA17" s="1">
-        <f>+AA15-AA16</f>
+        <f t="shared" si="6"/>
         <v>38030</v>
       </c>
       <c r="AB17" s="1">
-        <f>+AB15-AB16</f>
+        <f t="shared" si="6"/>
         <v>39246</v>
       </c>
       <c r="AC17" s="1">
-        <f>+AC15-AC16</f>
+        <f t="shared" si="6"/>
         <v>43191</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" ref="AD17:AR17" si="5">+AD15-AD16</f>
-        <v>44690.97</v>
+        <f t="shared" ref="AD17:AR17" si="7">+AD15-AD16</f>
+        <v>44259.060000000005</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="5"/>
-        <v>46241.045100000003</v>
+        <f t="shared" si="7"/>
+        <v>45351.544800000011</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="5"/>
-        <v>47842.856103000013</v>
+        <f t="shared" si="7"/>
+        <v>46468.988850000016</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="5"/>
-        <v>49498.085927340027</v>
+        <f t="shared" si="7"/>
+        <v>47611.937978310023</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="5"/>
-        <v>51208.471249941489</v>
+        <f t="shared" si="7"/>
+        <v>48780.949629455878</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="5"/>
-        <v>52975.804200840517</v>
+        <f t="shared" si="7"/>
+        <v>49976.593106998349</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="5"/>
-        <v>54801.934110601542</v>
+        <f t="shared" si="7"/>
+        <v>51199.449821365961</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="5"/>
-        <v>56688.769312248791</v>
+        <f t="shared" si="7"/>
+        <v>52450.113542804342</v>
       </c>
       <c r="AL17" s="1">
-        <f t="shared" si="5"/>
-        <v>58638.278999403694</v>
+        <f t="shared" si="7"/>
+        <v>53729.190659546657</v>
       </c>
       <c r="AM17" s="1">
-        <f t="shared" si="5"/>
-        <v>60652.495142367916</v>
+        <f t="shared" si="7"/>
+        <v>55037.300441312123</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" si="5"/>
-        <v>62733.514463945634</v>
+        <f t="shared" si="7"/>
+        <v>56375.075308241503</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" si="5"/>
-        <v>64883.500476853347</v>
+        <f t="shared" si="7"/>
+        <v>57743.161105381019</v>
       </c>
       <c r="AP17" s="1">
-        <f t="shared" si="5"/>
-        <v>67104.685584623017</v>
+        <f t="shared" si="7"/>
+        <v>59142.217382827948</v>
       </c>
       <c r="AQ17" s="1">
-        <f t="shared" si="5"/>
-        <v>69399.373247962372</v>
+        <f t="shared" si="7"/>
+        <v>60572.917681653904</v>
       </c>
       <c r="AR17" s="1">
-        <f t="shared" si="5"/>
-        <v>71769.940218596937</v>
+        <f t="shared" si="7"/>
+        <v>62035.949825723917</v>
       </c>
     </row>
     <row r="18" spans="1:145" x14ac:dyDescent="0.2">
@@ -2375,7 +2494,7 @@
       <c r="D18" s="1">
         <v>5031</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="1">
         <f>+AA18-SUM(B18:D18)</f>
         <v>5115</v>
       </c>
@@ -2388,7 +2507,7 @@
       <c r="H18" s="1">
         <v>5416</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="1">
         <f>+AB18-SUM(F18:H18)</f>
         <v>5778</v>
       </c>
@@ -2401,7 +2520,7 @@
       <c r="L18" s="1">
         <v>5880</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="1">
         <f>+AC18-SUM(J18:L18)</f>
         <v>6299</v>
       </c>
@@ -2411,6 +2530,9 @@
       <c r="O18" s="1">
         <v>5723</v>
       </c>
+      <c r="P18" s="1">
+        <v>5524</v>
+      </c>
       <c r="U18" s="1">
         <v>18949</v>
       </c>
@@ -2439,221 +2561,225 @@
         <v>23305</v>
       </c>
       <c r="AD18" s="1">
-        <f>+AC18*1.04</f>
-        <v>24237.200000000001</v>
+        <f>+AC18*1.02</f>
+        <v>23771.100000000002</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" ref="AE18:AR18" si="6">+AD18*1.04</f>
-        <v>25206.688000000002</v>
+        <f t="shared" ref="AE18:AR18" si="8">+AD18*1.02</f>
+        <v>24246.522000000001</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="6"/>
-        <v>26214.955520000003</v>
+        <f t="shared" si="8"/>
+        <v>24731.452440000001</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="6"/>
-        <v>27263.553740800005</v>
+        <f t="shared" si="8"/>
+        <v>25226.081488800002</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="6"/>
-        <v>28354.095890432007</v>
+        <f t="shared" si="8"/>
+        <v>25730.603118576004</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="6"/>
-        <v>29488.259726049288</v>
+        <f t="shared" si="8"/>
+        <v>26245.215180947525</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="6"/>
-        <v>30667.790115091258</v>
+        <f t="shared" si="8"/>
+        <v>26770.119484566476</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="6"/>
-        <v>31894.501719694908</v>
+        <f t="shared" si="8"/>
+        <v>27305.521874257807</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="6"/>
-        <v>33170.281788482709</v>
+        <f t="shared" si="8"/>
+        <v>27851.632311742964</v>
       </c>
       <c r="AM18" s="1">
-        <f t="shared" si="6"/>
-        <v>34497.093060022016</v>
+        <f t="shared" si="8"/>
+        <v>28408.664957977824</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" si="6"/>
-        <v>35876.976782422898</v>
+        <f t="shared" si="8"/>
+        <v>28976.83825713738</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" si="6"/>
-        <v>37312.055853719816</v>
+        <f t="shared" si="8"/>
+        <v>29556.375022280128</v>
       </c>
       <c r="AP18" s="1">
-        <f t="shared" si="6"/>
-        <v>38804.538087868612</v>
+        <f t="shared" si="8"/>
+        <v>30147.502522725732</v>
       </c>
       <c r="AQ18" s="1">
-        <f t="shared" si="6"/>
-        <v>40356.719611383356</v>
+        <f t="shared" si="8"/>
+        <v>30750.452573180246</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="6"/>
-        <v>41970.988395838693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:145" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+        <f t="shared" si="8"/>
+        <v>31365.461624643853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:145" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6">
-        <f>+B17-B18</f>
+      <c r="B19" s="5">
+        <f t="shared" ref="B19:P19" si="9">+B17-B18</f>
         <v>5023</v>
       </c>
-      <c r="C19" s="6">
-        <f>+C17-C18</f>
+      <c r="C19" s="5">
+        <f t="shared" si="9"/>
         <v>5168</v>
       </c>
-      <c r="D19" s="6">
-        <f>+D17-D18</f>
+      <c r="D19" s="5">
+        <f t="shared" si="9"/>
         <v>4024</v>
       </c>
-      <c r="E19" s="6">
-        <f>+E17-E18</f>
+      <c r="E19" s="5">
+        <f t="shared" si="9"/>
         <v>3598</v>
       </c>
-      <c r="F19" s="6">
-        <f>+F17-F18</f>
+      <c r="F19" s="5">
+        <f t="shared" si="9"/>
         <v>4939</v>
       </c>
-      <c r="G19" s="6">
-        <f>+G17-G18</f>
+      <c r="G19" s="5">
+        <f t="shared" si="9"/>
         <v>4785</v>
       </c>
-      <c r="H19" s="6">
-        <f>+H17-H18</f>
+      <c r="H19" s="5">
+        <f t="shared" si="9"/>
         <v>4248</v>
       </c>
-      <c r="I19" s="6">
-        <f>+I17-I18</f>
+      <c r="I19" s="5">
+        <f t="shared" si="9"/>
         <v>4162</v>
       </c>
-      <c r="J19" s="6">
-        <f>+J17-J18</f>
+      <c r="J19" s="5">
+        <f t="shared" si="9"/>
         <v>5766</v>
       </c>
-      <c r="K19" s="6">
-        <f>+K17-K18</f>
+      <c r="K19" s="5">
+        <f t="shared" si="9"/>
         <v>5775</v>
       </c>
-      <c r="L19" s="6">
-        <f>+L17-L18</f>
+      <c r="L19" s="5">
+        <f t="shared" si="9"/>
         <v>4460</v>
       </c>
-      <c r="M19" s="6">
-        <f>+M17-M18</f>
+      <c r="M19" s="5">
+        <f t="shared" si="9"/>
         <v>3885</v>
       </c>
-      <c r="N19" s="6">
-        <f>+N17-N18</f>
+      <c r="N19" s="5">
+        <f t="shared" si="9"/>
         <v>5797</v>
       </c>
-      <c r="O19" s="6">
-        <f>+O17-O18</f>
+      <c r="O19" s="5">
+        <f t="shared" si="9"/>
         <v>5741</v>
       </c>
-      <c r="U19" s="6">
-        <f>+U17-U18</f>
+      <c r="P19" s="5">
+        <f t="shared" si="9"/>
+        <v>4558</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" ref="U19:AC19" si="10">+U17-U18</f>
         <v>13441</v>
       </c>
-      <c r="V19" s="6">
-        <f>+V17-V18</f>
+      <c r="V19" s="5">
+        <f t="shared" si="10"/>
         <v>13955</v>
       </c>
-      <c r="W19" s="6">
-        <f>+W17-W18</f>
+      <c r="W19" s="5">
+        <f t="shared" si="10"/>
         <v>13711</v>
       </c>
-      <c r="X19" s="6">
-        <f>+X17-X18</f>
+      <c r="X19" s="5">
+        <f t="shared" si="10"/>
         <v>13832</v>
       </c>
-      <c r="Y19" s="6">
-        <f>+Y17-Y18</f>
+      <c r="Y19" s="5">
+        <f t="shared" si="10"/>
         <v>15706</v>
       </c>
-      <c r="Z19" s="6">
-        <f>+Z17-Z18</f>
+      <c r="Z19" s="5">
+        <f t="shared" si="10"/>
         <v>17986</v>
       </c>
-      <c r="AA19" s="6">
-        <f>+AA17-AA18</f>
+      <c r="AA19" s="5">
+        <f t="shared" si="10"/>
         <v>17813</v>
       </c>
-      <c r="AB19" s="6">
-        <f>+AB17-AB18</f>
+      <c r="AB19" s="5">
+        <f t="shared" si="10"/>
         <v>18134</v>
       </c>
-      <c r="AC19" s="6">
-        <f>+AC17-AC18</f>
+      <c r="AC19" s="5">
+        <f t="shared" si="10"/>
         <v>19886</v>
       </c>
-      <c r="AD19" s="6">
-        <f t="shared" ref="AD19:AR19" si="7">+AD17-AD18</f>
-        <v>20453.77</v>
-      </c>
-      <c r="AE19" s="6">
-        <f t="shared" si="7"/>
-        <v>21034.357100000001</v>
-      </c>
-      <c r="AF19" s="6">
-        <f t="shared" si="7"/>
-        <v>21627.90058300001</v>
-      </c>
-      <c r="AG19" s="6">
-        <f t="shared" si="7"/>
-        <v>22234.532186540022</v>
-      </c>
-      <c r="AH19" s="6">
-        <f t="shared" si="7"/>
-        <v>22854.375359509482</v>
-      </c>
-      <c r="AI19" s="6">
-        <f t="shared" si="7"/>
-        <v>23487.54447479123</v>
-      </c>
-      <c r="AJ19" s="6">
-        <f t="shared" si="7"/>
-        <v>24134.143995510283</v>
-      </c>
-      <c r="AK19" s="6">
-        <f t="shared" si="7"/>
-        <v>24794.267592553882</v>
-      </c>
-      <c r="AL19" s="6">
-        <f t="shared" si="7"/>
-        <v>25467.997210920985</v>
-      </c>
-      <c r="AM19" s="6">
-        <f t="shared" si="7"/>
-        <v>26155.4020823459</v>
-      </c>
-      <c r="AN19" s="6">
-        <f t="shared" si="7"/>
-        <v>26856.537681522736</v>
-      </c>
-      <c r="AO19" s="6">
-        <f t="shared" si="7"/>
-        <v>27571.444623133531</v>
-      </c>
-      <c r="AP19" s="6">
-        <f t="shared" si="7"/>
-        <v>28300.147496754405</v>
-      </c>
-      <c r="AQ19" s="6">
-        <f t="shared" si="7"/>
-        <v>29042.653636579016</v>
-      </c>
-      <c r="AR19" s="6">
-        <f t="shared" si="7"/>
-        <v>29798.951822758245</v>
+      <c r="AD19" s="5">
+        <f t="shared" ref="AD19:AR19" si="11">+AD17-AD18</f>
+        <v>20487.960000000003</v>
+      </c>
+      <c r="AE19" s="5">
+        <f t="shared" si="11"/>
+        <v>21105.02280000001</v>
+      </c>
+      <c r="AF19" s="5">
+        <f t="shared" si="11"/>
+        <v>21737.536410000015</v>
+      </c>
+      <c r="AG19" s="5">
+        <f t="shared" si="11"/>
+        <v>22385.856489510021</v>
+      </c>
+      <c r="AH19" s="5">
+        <f t="shared" si="11"/>
+        <v>23050.346510879874</v>
+      </c>
+      <c r="AI19" s="5">
+        <f t="shared" si="11"/>
+        <v>23731.377926050824</v>
+      </c>
+      <c r="AJ19" s="5">
+        <f t="shared" si="11"/>
+        <v>24429.330336799485</v>
+      </c>
+      <c r="AK19" s="5">
+        <f t="shared" si="11"/>
+        <v>25144.591668546534</v>
+      </c>
+      <c r="AL19" s="5">
+        <f t="shared" si="11"/>
+        <v>25877.558347803693</v>
+      </c>
+      <c r="AM19" s="5">
+        <f t="shared" si="11"/>
+        <v>26628.635483334299</v>
+      </c>
+      <c r="AN19" s="5">
+        <f t="shared" si="11"/>
+        <v>27398.237051104123</v>
+      </c>
+      <c r="AO19" s="5">
+        <f t="shared" si="11"/>
+        <v>28186.786083100891</v>
+      </c>
+      <c r="AP19" s="5">
+        <f t="shared" si="11"/>
+        <v>28994.714860102216</v>
+      </c>
+      <c r="AQ19" s="5">
+        <f t="shared" si="11"/>
+        <v>29822.465108473658</v>
+      </c>
+      <c r="AR19" s="5">
+        <f t="shared" si="11"/>
+        <v>30670.488201080065</v>
       </c>
     </row>
     <row r="20" spans="1:145" x14ac:dyDescent="0.2">
@@ -2661,156 +2787,160 @@
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <f>-109+11</f>
-        <v>-98</v>
+        <f>109-11</f>
+        <v>98</v>
       </c>
       <c r="C20" s="1">
-        <f>-106+10</f>
-        <v>-96</v>
+        <f>106-10</f>
+        <v>96</v>
       </c>
       <c r="D20" s="1">
-        <f>-109+9</f>
-        <v>-100</v>
-      </c>
-      <c r="E20" s="9">
+        <f>109-9</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="1">
         <f>+AA20-SUM(B20:D20)</f>
-        <v>-94</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1">
-        <f>-123+42</f>
-        <v>-81</v>
+        <f>123-42</f>
+        <v>81</v>
       </c>
       <c r="G20" s="1">
-        <f>-171+66</f>
-        <v>-105</v>
+        <f>171-66</f>
+        <v>105</v>
       </c>
       <c r="H20" s="1">
-        <f>-222+83</f>
-        <v>-139</v>
-      </c>
-      <c r="I20" s="9">
+        <f>222-83</f>
+        <v>139</v>
+      </c>
+      <c r="I20" s="1">
         <f>+AB20-SUM(F20:H20)</f>
-        <v>-124</v>
+        <v>124</v>
       </c>
       <c r="J20" s="1">
-        <f>-225+128</f>
-        <v>-97</v>
+        <f>225-128</f>
+        <v>97</v>
       </c>
       <c r="K20" s="1">
-        <f>-248+133</f>
-        <v>-115</v>
+        <f>248-133</f>
+        <v>115</v>
       </c>
       <c r="L20" s="1">
-        <f>-233+104</f>
-        <v>-129</v>
-      </c>
-      <c r="M20" s="9">
+        <f>233-104</f>
+        <v>129</v>
+      </c>
+      <c r="M20" s="1">
         <f>+AC20-SUM(J20:L20)</f>
-        <v>-111</v>
+        <v>111</v>
       </c>
       <c r="N20" s="1">
-        <f>-238+135</f>
-        <v>-103</v>
+        <f>238-135</f>
+        <v>103</v>
       </c>
       <c r="O20" s="1">
-        <f>-240+119</f>
-        <v>-121</v>
+        <f>240-119</f>
+        <v>121</v>
+      </c>
+      <c r="P20" s="1">
+        <f>217-111</f>
+        <v>106</v>
       </c>
       <c r="U20" s="1">
-        <f>579+182</f>
-        <v>761</v>
+        <f>-579-182</f>
+        <v>-761</v>
       </c>
       <c r="V20" s="1">
-        <f>465+171</f>
-        <v>636</v>
+        <f>-465-171</f>
+        <v>-636</v>
       </c>
       <c r="W20" s="1">
-        <f>506+247</f>
-        <v>753</v>
+        <f>-506-247</f>
+        <v>-753</v>
       </c>
       <c r="X20" s="1">
-        <f>-509+220</f>
-        <v>-289</v>
+        <f>509-220</f>
+        <v>289</v>
       </c>
       <c r="Y20" s="1">
-        <f>-465+155</f>
-        <v>-310</v>
+        <f>465-155</f>
+        <v>310</v>
       </c>
       <c r="Z20" s="1">
-        <f>-502+45</f>
-        <v>-457</v>
+        <f>502-45</f>
+        <v>457</v>
       </c>
       <c r="AA20" s="1">
-        <f>-439+51</f>
-        <v>-388</v>
+        <f>439-51</f>
+        <v>388</v>
       </c>
       <c r="AB20" s="1">
-        <f>-756+307</f>
-        <v>-449</v>
+        <f>756-307</f>
+        <v>449</v>
       </c>
       <c r="AC20" s="1">
-        <f>-925+473</f>
-        <v>-452</v>
+        <f>925-473</f>
+        <v>452</v>
       </c>
       <c r="AD20" s="1">
         <f>+AC34*0.03</f>
         <v>-733.70999999999992</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" ref="AE20:AR20" si="8">+AD34*0.03</f>
-        <v>-260.42855999999995</v>
+        <f t="shared" ref="AE20:AR20" si="12">+AD34*0.03</f>
+        <v>-259.60799999999989</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="8"/>
-        <v>238.14572496000005</v>
+        <f t="shared" si="12"/>
+        <v>240.68195520000029</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="8"/>
-        <v>762.93083635104028</v>
+        <f t="shared" si="12"/>
+        <v>768.15919596480069</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="8"/>
-        <v>1314.8699489004257</v>
+        <f t="shared" si="12"/>
+        <v>1323.8555724161961</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="8"/>
-        <v>1894.9318363022635</v>
+        <f t="shared" si="12"/>
+        <v>1908.8364224153017</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="8"/>
-        <v>2504.1112677685073</v>
+        <f t="shared" si="12"/>
+        <v>2524.2015667784885</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="8"/>
-        <v>3143.4293940871985</v>
+        <f t="shared" si="12"/>
+        <v>3171.0863324643597</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="8"/>
-        <v>3813.9341217665842</v>
+        <f t="shared" si="12"/>
+        <v>3850.6626044886211</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" si="8"/>
-        <v>4516.7004737510861</v>
+        <f t="shared" si="12"/>
+        <v>4564.1399073436369</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" si="8"/>
-        <v>5252.8309350974132</v>
+        <f t="shared" si="12"/>
+        <v>5312.7665167199075</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="8"/>
-        <v>6023.4557818962967</v>
+        <f t="shared" si="12"/>
+        <v>6097.8306023476844</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="8"/>
-        <v>6829.7333916170128</v>
+        <f t="shared" si="12"/>
+        <v>6920.6614027984497</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="8"/>
-        <v>7672.8505329379268</v>
+        <f t="shared" si="12"/>
+        <v>7782.6304331080655</v>
       </c>
       <c r="AR20" s="1">
-        <f t="shared" si="8"/>
-        <v>8554.0226330063324</v>
+        <f t="shared" si="12"/>
+        <v>8685.1527261060255</v>
       </c>
     </row>
     <row r="21" spans="1:145" x14ac:dyDescent="0.2">
@@ -2818,156 +2948,160 @@
         <v>6</v>
       </c>
       <c r="B21" s="1">
-        <f>+B19+B20</f>
+        <f>+B19-B20</f>
         <v>4925</v>
       </c>
       <c r="C21" s="1">
-        <f>+C19+C20</f>
+        <f t="shared" ref="C21:F21" si="13">+C19-C20</f>
         <v>5072</v>
       </c>
       <c r="D21" s="1">
-        <f>+D19+D20</f>
+        <f t="shared" si="13"/>
         <v>3924</v>
       </c>
       <c r="E21" s="1">
-        <f>+E19+E20</f>
+        <f t="shared" si="13"/>
         <v>3504</v>
       </c>
       <c r="F21" s="1">
-        <f>+F19+F20</f>
+        <f t="shared" si="13"/>
         <v>4858</v>
       </c>
       <c r="G21" s="1">
-        <f>+G19+G20</f>
+        <f t="shared" ref="G21" si="14">+G19-G20</f>
         <v>4680</v>
       </c>
       <c r="H21" s="1">
-        <f>+H19+H20</f>
+        <f t="shared" ref="H21" si="15">+H19-H20</f>
         <v>4109</v>
       </c>
       <c r="I21" s="1">
-        <f>+I19+I20</f>
+        <f t="shared" ref="I21" si="16">+I19-I20</f>
         <v>4038</v>
       </c>
       <c r="J21" s="1">
-        <f>+J19+J20</f>
+        <f t="shared" ref="J21" si="17">+J19-J20</f>
         <v>5669</v>
       </c>
       <c r="K21" s="1">
-        <f>+K19+K20</f>
+        <f t="shared" ref="K21" si="18">+K19-K20</f>
         <v>5660</v>
       </c>
       <c r="L21" s="1">
-        <f>+L19+L20</f>
+        <f t="shared" ref="L21" si="19">+L19-L20</f>
         <v>4331</v>
       </c>
       <c r="M21" s="1">
-        <f>+M19+M20</f>
+        <f t="shared" ref="M21" si="20">+M19-M20</f>
         <v>3774</v>
       </c>
       <c r="N21" s="1">
-        <f>+N19+N20</f>
+        <f t="shared" ref="N21" si="21">+N19-N20</f>
         <v>5694</v>
       </c>
       <c r="O21" s="1">
-        <f>+O19+O20</f>
+        <f t="shared" ref="O21" si="22">+O19-O20</f>
         <v>5620</v>
       </c>
+      <c r="P21" s="1">
+        <f t="shared" ref="P21" si="23">+P19-P20</f>
+        <v>4452</v>
+      </c>
       <c r="U21" s="1">
-        <f>+U19+U20</f>
+        <f>+U19-U20</f>
         <v>14202</v>
       </c>
       <c r="V21" s="1">
-        <f>+V19+V20</f>
+        <f t="shared" ref="V21:AC21" si="24">+V19-V20</f>
         <v>14591</v>
       </c>
       <c r="W21" s="1">
-        <f>+W19+W20</f>
+        <f t="shared" si="24"/>
         <v>14464</v>
       </c>
       <c r="X21" s="1">
-        <f>+X19+X20</f>
+        <f t="shared" si="24"/>
         <v>13543</v>
       </c>
       <c r="Y21" s="1">
-        <f>+Y19+Y20</f>
+        <f t="shared" si="24"/>
         <v>15396</v>
       </c>
       <c r="Z21" s="1">
-        <f>+Z19+Z20</f>
+        <f t="shared" si="24"/>
         <v>17529</v>
       </c>
       <c r="AA21" s="1">
-        <f>+AA19+AA20</f>
+        <f t="shared" si="24"/>
         <v>17425</v>
       </c>
       <c r="AB21" s="1">
-        <f>+AB19+AB20</f>
+        <f t="shared" si="24"/>
         <v>17685</v>
       </c>
       <c r="AC21" s="1">
-        <f>+AC19+AC20</f>
+        <f t="shared" si="24"/>
         <v>19434</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" ref="AD21:AR21" si="9">+AD19+AD20</f>
-        <v>19720.060000000001</v>
+        <f t="shared" ref="AD21:AR21" si="25">+AD19+AD20</f>
+        <v>19754.250000000004</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="9"/>
-        <v>20773.928540000001</v>
+        <f t="shared" si="25"/>
+        <v>20845.41480000001</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="9"/>
-        <v>21866.046307960009</v>
+        <f t="shared" si="25"/>
+        <v>21978.218365200017</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="9"/>
-        <v>22997.463022891061</v>
+        <f t="shared" si="25"/>
+        <v>23154.01568547482</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="9"/>
-        <v>24169.245308409907</v>
+        <f t="shared" si="25"/>
+        <v>24374.20208329607</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="9"/>
-        <v>25382.476311093495</v>
+        <f t="shared" si="25"/>
+        <v>25640.214348466125</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="9"/>
-        <v>26638.255263278792</v>
+        <f t="shared" si="25"/>
+        <v>26953.531903577972</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="9"/>
-        <v>27937.69698664108</v>
+        <f t="shared" si="25"/>
+        <v>28315.678001010892</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="9"/>
-        <v>29281.931332687571</v>
+        <f t="shared" si="25"/>
+        <v>29728.220952292315</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="9"/>
-        <v>30672.102556096987</v>
+        <f t="shared" si="25"/>
+        <v>31192.775390677936</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="9"/>
-        <v>32109.368616620148</v>
+        <f t="shared" si="25"/>
+        <v>32711.003567824031</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="9"/>
-        <v>33594.900405029824</v>
+        <f t="shared" si="25"/>
+        <v>34284.616685448578</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="9"/>
-        <v>35129.880888371415</v>
+        <f t="shared" si="25"/>
+        <v>35915.376262900667</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="9"/>
-        <v>36715.504169516942</v>
+        <f t="shared" si="25"/>
+        <v>37605.095541581723</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="9"/>
-        <v>38352.974455764575</v>
+        <f t="shared" si="25"/>
+        <v>39355.64092718609</v>
       </c>
     </row>
     <row r="22" spans="1:145" x14ac:dyDescent="0.2">
@@ -2983,7 +3117,7 @@
       <c r="D22" s="1">
         <v>704</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="1">
         <f>+AA22-SUM(B22:D22)</f>
         <v>592</v>
       </c>
@@ -2996,7 +3130,7 @@
       <c r="H22" s="1">
         <v>864</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="1">
         <f>+AB22-SUM(F22:H22)</f>
         <v>841</v>
       </c>
@@ -3009,7 +3143,7 @@
       <c r="L22" s="1">
         <v>812</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="1">
         <f>+AC22-SUM(J22:L22)</f>
         <v>726</v>
       </c>
@@ -3019,6 +3153,9 @@
       <c r="O22" s="1">
         <v>1187</v>
       </c>
+      <c r="P22" s="1">
+        <v>868</v>
+      </c>
       <c r="U22" s="1">
         <v>3342</v>
       </c>
@@ -3048,781 +3185,789 @@
       </c>
       <c r="AD22" s="1">
         <f>+AD21*0.2</f>
-        <v>3944.0120000000006</v>
+        <v>3950.8500000000008</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" ref="AE22:AR22" si="10">+AE21*0.2</f>
-        <v>4154.7857080000003</v>
+        <f t="shared" ref="AE22:AR22" si="26">+AE21*0.2</f>
+        <v>4169.0829600000025</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="10"/>
-        <v>4373.2092615920019</v>
+        <f t="shared" si="26"/>
+        <v>4395.6436730400037</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="10"/>
-        <v>4599.4926045782122</v>
+        <f t="shared" si="26"/>
+        <v>4630.8031370949639</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="10"/>
-        <v>4833.8490616819818</v>
+        <f t="shared" si="26"/>
+        <v>4874.8404166592145</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="10"/>
-        <v>5076.4952622186993</v>
+        <f t="shared" si="26"/>
+        <v>5128.0428696932249</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="10"/>
-        <v>5327.6510526557586</v>
+        <f t="shared" si="26"/>
+        <v>5390.7063807155946</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="10"/>
-        <v>5587.5393973282162</v>
+        <f t="shared" si="26"/>
+        <v>5663.1356002021785</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="10"/>
-        <v>5856.3862665375145</v>
+        <f t="shared" si="26"/>
+        <v>5945.6441904584635</v>
       </c>
       <c r="AM22" s="1">
-        <f t="shared" si="10"/>
-        <v>6134.4205112193977</v>
+        <f t="shared" si="26"/>
+        <v>6238.5550781355878</v>
       </c>
       <c r="AN22" s="1">
-        <f t="shared" si="10"/>
-        <v>6421.8737233240299</v>
+        <f t="shared" si="26"/>
+        <v>6542.2007135648064</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="10"/>
-        <v>6718.9800810059651</v>
+        <f t="shared" si="26"/>
+        <v>6856.9233370897164</v>
       </c>
       <c r="AP22" s="1">
-        <f t="shared" si="10"/>
-        <v>7025.9761776742835</v>
+        <f t="shared" si="26"/>
+        <v>7183.0752525801336</v>
       </c>
       <c r="AQ22" s="1">
-        <f t="shared" si="10"/>
-        <v>7343.1008339033888</v>
+        <f t="shared" si="26"/>
+        <v>7521.0191083163445</v>
       </c>
       <c r="AR22" s="1">
-        <f t="shared" si="10"/>
-        <v>7670.5948911529158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:145" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+        <f t="shared" si="26"/>
+        <v>7871.1281854372182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:145" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="6">
-        <f>+B21-B22</f>
+      <c r="B23" s="5">
+        <f t="shared" ref="B23:P23" si="27">+B21-B22</f>
         <v>4016</v>
       </c>
-      <c r="C23" s="6">
-        <f>+C21-C22</f>
+      <c r="C23" s="5">
+        <f t="shared" si="27"/>
         <v>4075</v>
       </c>
-      <c r="D23" s="6">
-        <f>+D21-D22</f>
+      <c r="D23" s="5">
+        <f t="shared" si="27"/>
         <v>3220</v>
       </c>
-      <c r="E23" s="6">
-        <f>+E21-E22</f>
+      <c r="E23" s="5">
+        <f t="shared" si="27"/>
         <v>2912</v>
       </c>
-      <c r="F23" s="6">
-        <f>+F21-F22</f>
+      <c r="F23" s="5">
+        <f t="shared" si="27"/>
         <v>3824</v>
       </c>
-      <c r="G23" s="6">
-        <f>+G21-G22</f>
+      <c r="G23" s="5">
+        <f t="shared" si="27"/>
         <v>3804</v>
       </c>
-      <c r="H23" s="6">
-        <f>+H21-H22</f>
+      <c r="H23" s="5">
+        <f t="shared" si="27"/>
         <v>3245</v>
       </c>
-      <c r="I23" s="6">
-        <f>+I21-I22</f>
+      <c r="I23" s="5">
+        <f t="shared" si="27"/>
         <v>3197</v>
       </c>
-      <c r="J23" s="6">
-        <f>+J21-J22</f>
+      <c r="J23" s="5">
+        <f t="shared" si="27"/>
         <v>4423</v>
       </c>
-      <c r="K23" s="6">
-        <f>+K21-K22</f>
+      <c r="K23" s="5">
+        <f t="shared" si="27"/>
         <v>4657</v>
       </c>
-      <c r="L23" s="6">
-        <f>+L21-L22</f>
+      <c r="L23" s="5">
+        <f t="shared" si="27"/>
         <v>3519</v>
       </c>
-      <c r="M23" s="6">
-        <f>+M21-M22</f>
+      <c r="M23" s="5">
+        <f t="shared" si="27"/>
         <v>3048</v>
       </c>
-      <c r="N23" s="6">
-        <f>+N21-N22</f>
+      <c r="N23" s="5">
+        <f t="shared" si="27"/>
         <v>4542</v>
       </c>
-      <c r="O23" s="6">
-        <f>+O21-O22</f>
+      <c r="O23" s="5">
+        <f t="shared" si="27"/>
         <v>4433</v>
       </c>
-      <c r="U23" s="6">
-        <f>+U21-U22</f>
+      <c r="P23" s="5">
+        <f t="shared" si="27"/>
+        <v>3584</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" ref="U23:AC23" si="28">+U21-U22</f>
         <v>10860</v>
       </c>
-      <c r="V23" s="6">
-        <f>+V21-V22</f>
+      <c r="V23" s="5">
+        <f t="shared" si="28"/>
         <v>11528</v>
       </c>
-      <c r="W23" s="6">
-        <f>+W21-W22</f>
+      <c r="W23" s="5">
+        <f t="shared" si="28"/>
         <v>10999</v>
       </c>
-      <c r="X23" s="6">
-        <f>+X21-X22</f>
+      <c r="X23" s="5">
+        <f t="shared" si="28"/>
         <v>11440</v>
       </c>
-      <c r="Y23" s="6">
-        <f>+Y21-Y22</f>
+      <c r="Y23" s="5">
+        <f t="shared" si="28"/>
         <v>12665</v>
       </c>
-      <c r="Z23" s="6">
-        <f>+Z21-Z22</f>
+      <c r="Z23" s="5">
+        <f t="shared" si="28"/>
         <v>14266</v>
       </c>
-      <c r="AA23" s="6">
-        <f>+AA21-AA22</f>
+      <c r="AA23" s="5">
+        <f t="shared" si="28"/>
         <v>14223</v>
       </c>
-      <c r="AB23" s="6">
-        <f>+AB21-AB22</f>
+      <c r="AB23" s="5">
+        <f t="shared" si="28"/>
         <v>14070</v>
       </c>
-      <c r="AC23" s="6">
-        <f>+AC21-AC22</f>
+      <c r="AC23" s="5">
+        <f t="shared" si="28"/>
         <v>15647</v>
       </c>
-      <c r="AD23" s="6">
-        <f t="shared" ref="AD23:AR23" si="11">+AD21-AD22</f>
-        <v>15776.048000000001</v>
-      </c>
-      <c r="AE23" s="6">
-        <f t="shared" si="11"/>
-        <v>16619.142832000001</v>
-      </c>
-      <c r="AF23" s="6">
-        <f t="shared" si="11"/>
-        <v>17492.837046368008</v>
-      </c>
-      <c r="AG23" s="6">
-        <f t="shared" si="11"/>
-        <v>18397.970418312849</v>
-      </c>
-      <c r="AH23" s="6">
-        <f t="shared" si="11"/>
-        <v>19335.396246727927</v>
-      </c>
-      <c r="AI23" s="6">
-        <f t="shared" si="11"/>
-        <v>20305.981048874797</v>
-      </c>
-      <c r="AJ23" s="6">
-        <f t="shared" si="11"/>
-        <v>21310.604210623034</v>
-      </c>
-      <c r="AK23" s="6">
-        <f t="shared" si="11"/>
-        <v>22350.157589312865</v>
-      </c>
-      <c r="AL23" s="6">
-        <f t="shared" si="11"/>
-        <v>23425.545066150058</v>
-      </c>
-      <c r="AM23" s="6">
-        <f t="shared" si="11"/>
-        <v>24537.682044877591</v>
-      </c>
-      <c r="AN23" s="6">
-        <f t="shared" si="11"/>
-        <v>25687.49489329612</v>
-      </c>
-      <c r="AO23" s="6">
-        <f t="shared" si="11"/>
-        <v>26875.92032402386</v>
-      </c>
-      <c r="AP23" s="6">
-        <f t="shared" si="11"/>
-        <v>28103.904710697134</v>
-      </c>
-      <c r="AQ23" s="6">
-        <f t="shared" si="11"/>
-        <v>29372.403335613555</v>
-      </c>
-      <c r="AR23" s="6">
-        <f t="shared" si="11"/>
-        <v>30682.37956461166</v>
-      </c>
-      <c r="AS23" s="6">
+      <c r="AD23" s="5">
+        <f t="shared" ref="AD23:AR23" si="29">+AD21-AD22</f>
+        <v>15803.400000000003</v>
+      </c>
+      <c r="AE23" s="5">
+        <f t="shared" si="29"/>
+        <v>16676.331840000006</v>
+      </c>
+      <c r="AF23" s="5">
+        <f t="shared" si="29"/>
+        <v>17582.574692160015</v>
+      </c>
+      <c r="AG23" s="5">
+        <f t="shared" si="29"/>
+        <v>18523.212548379855</v>
+      </c>
+      <c r="AH23" s="5">
+        <f t="shared" si="29"/>
+        <v>19499.361666636854</v>
+      </c>
+      <c r="AI23" s="5">
+        <f t="shared" si="29"/>
+        <v>20512.1714787729</v>
+      </c>
+      <c r="AJ23" s="5">
+        <f t="shared" si="29"/>
+        <v>21562.825522862378</v>
+      </c>
+      <c r="AK23" s="5">
+        <f t="shared" si="29"/>
+        <v>22652.542400808714</v>
+      </c>
+      <c r="AL23" s="5">
+        <f t="shared" si="29"/>
+        <v>23782.57676183385</v>
+      </c>
+      <c r="AM23" s="5">
+        <f t="shared" si="29"/>
+        <v>24954.220312542348</v>
+      </c>
+      <c r="AN23" s="5">
+        <f t="shared" si="29"/>
+        <v>26168.802854259226</v>
+      </c>
+      <c r="AO23" s="5">
+        <f t="shared" si="29"/>
+        <v>27427.693348358862</v>
+      </c>
+      <c r="AP23" s="5">
+        <f t="shared" si="29"/>
+        <v>28732.301010320534</v>
+      </c>
+      <c r="AQ23" s="5">
+        <f t="shared" si="29"/>
+        <v>30084.076433265378</v>
+      </c>
+      <c r="AR23" s="5">
+        <f t="shared" si="29"/>
+        <v>31484.512741748873</v>
+      </c>
+      <c r="AS23" s="5">
         <f>+AR23*(1+$AU$28)</f>
-        <v>30375.555768965543</v>
-      </c>
-      <c r="AT23" s="6">
-        <f t="shared" ref="AT23:DE23" si="12">+AS23*(1+$AU$28)</f>
-        <v>30071.800211275888</v>
-      </c>
-      <c r="AU23" s="6">
-        <f t="shared" si="12"/>
-        <v>29771.082209163127</v>
-      </c>
-      <c r="AV23" s="6">
-        <f t="shared" si="12"/>
-        <v>29473.371387071496</v>
-      </c>
-      <c r="AW23" s="6">
-        <f t="shared" si="12"/>
-        <v>29178.637673200781</v>
-      </c>
-      <c r="AX23" s="6">
-        <f t="shared" si="12"/>
-        <v>28886.851296468772</v>
-      </c>
-      <c r="AY23" s="6">
-        <f t="shared" si="12"/>
-        <v>28597.982783504085</v>
-      </c>
-      <c r="AZ23" s="6">
-        <f t="shared" si="12"/>
-        <v>28312.002955669042</v>
-      </c>
-      <c r="BA23" s="6">
-        <f t="shared" si="12"/>
-        <v>28028.88292611235</v>
-      </c>
-      <c r="BB23" s="6">
-        <f t="shared" si="12"/>
-        <v>27748.594096851226</v>
-      </c>
-      <c r="BC23" s="6">
-        <f t="shared" si="12"/>
-        <v>27471.108155882714</v>
-      </c>
-      <c r="BD23" s="6">
-        <f t="shared" si="12"/>
-        <v>27196.397074323886</v>
-      </c>
-      <c r="BE23" s="6">
-        <f t="shared" si="12"/>
-        <v>26924.433103580646</v>
-      </c>
-      <c r="BF23" s="6">
-        <f t="shared" si="12"/>
-        <v>26655.18877254484</v>
-      </c>
-      <c r="BG23" s="6">
-        <f t="shared" si="12"/>
-        <v>26388.636884819392</v>
-      </c>
-      <c r="BH23" s="6">
-        <f t="shared" si="12"/>
-        <v>26124.750515971198</v>
-      </c>
-      <c r="BI23" s="6">
-        <f t="shared" si="12"/>
-        <v>25863.503010811484</v>
-      </c>
-      <c r="BJ23" s="6">
-        <f t="shared" si="12"/>
-        <v>25604.86798070337</v>
-      </c>
-      <c r="BK23" s="6">
-        <f t="shared" si="12"/>
-        <v>25348.819300896335</v>
-      </c>
-      <c r="BL23" s="6">
-        <f t="shared" si="12"/>
-        <v>25095.33110788737</v>
-      </c>
-      <c r="BM23" s="6">
-        <f t="shared" si="12"/>
-        <v>24844.377796808498</v>
-      </c>
-      <c r="BN23" s="6">
-        <f t="shared" si="12"/>
-        <v>24595.934018840413</v>
-      </c>
-      <c r="BO23" s="6">
-        <f t="shared" si="12"/>
-        <v>24349.974678652008</v>
-      </c>
-      <c r="BP23" s="6">
-        <f t="shared" si="12"/>
-        <v>24106.474931865487</v>
-      </c>
-      <c r="BQ23" s="6">
-        <f t="shared" si="12"/>
-        <v>23865.410182546831</v>
-      </c>
-      <c r="BR23" s="6">
-        <f t="shared" si="12"/>
-        <v>23626.756080721363</v>
-      </c>
-      <c r="BS23" s="6">
-        <f t="shared" si="12"/>
-        <v>23390.48851991415</v>
-      </c>
-      <c r="BT23" s="6">
-        <f t="shared" si="12"/>
-        <v>23156.583634715007</v>
-      </c>
-      <c r="BU23" s="6">
-        <f t="shared" si="12"/>
-        <v>22925.017798367855</v>
-      </c>
-      <c r="BV23" s="6">
-        <f t="shared" si="12"/>
-        <v>22695.767620384177</v>
-      </c>
-      <c r="BW23" s="6">
-        <f t="shared" si="12"/>
-        <v>22468.809944180335</v>
-      </c>
-      <c r="BX23" s="6">
-        <f t="shared" si="12"/>
-        <v>22244.121844738533</v>
-      </c>
-      <c r="BY23" s="6">
-        <f t="shared" si="12"/>
-        <v>22021.680626291149</v>
-      </c>
-      <c r="BZ23" s="6">
-        <f t="shared" si="12"/>
-        <v>21801.463820028235</v>
-      </c>
-      <c r="CA23" s="6">
-        <f t="shared" si="12"/>
-        <v>21583.449181827953</v>
-      </c>
-      <c r="CB23" s="6">
-        <f t="shared" si="12"/>
-        <v>21367.614690009672</v>
-      </c>
-      <c r="CC23" s="6">
-        <f t="shared" si="12"/>
-        <v>21153.938543109576</v>
-      </c>
-      <c r="CD23" s="6">
-        <f t="shared" si="12"/>
-        <v>20942.399157678479</v>
-      </c>
-      <c r="CE23" s="6">
-        <f t="shared" si="12"/>
-        <v>20732.975166101693</v>
-      </c>
-      <c r="CF23" s="6">
-        <f t="shared" si="12"/>
-        <v>20525.645414440674</v>
-      </c>
-      <c r="CG23" s="6">
-        <f t="shared" si="12"/>
-        <v>20320.388960296266</v>
-      </c>
-      <c r="CH23" s="6">
-        <f t="shared" si="12"/>
-        <v>20117.185070693304</v>
-      </c>
-      <c r="CI23" s="6">
-        <f t="shared" si="12"/>
-        <v>19916.013219986369</v>
-      </c>
-      <c r="CJ23" s="6">
-        <f t="shared" si="12"/>
-        <v>19716.853087786505</v>
-      </c>
-      <c r="CK23" s="6">
-        <f t="shared" si="12"/>
-        <v>19519.68455690864</v>
-      </c>
-      <c r="CL23" s="6">
-        <f t="shared" si="12"/>
-        <v>19324.487711339552</v>
-      </c>
-      <c r="CM23" s="6">
-        <f t="shared" si="12"/>
-        <v>19131.242834226156</v>
-      </c>
-      <c r="CN23" s="6">
-        <f t="shared" si="12"/>
-        <v>18939.930405883893</v>
-      </c>
-      <c r="CO23" s="6">
-        <f t="shared" si="12"/>
-        <v>18750.531101825054</v>
-      </c>
-      <c r="CP23" s="6">
-        <f t="shared" si="12"/>
-        <v>18563.025790806805</v>
-      </c>
-      <c r="CQ23" s="6">
-        <f t="shared" si="12"/>
-        <v>18377.395532898736</v>
-      </c>
-      <c r="CR23" s="6">
-        <f t="shared" si="12"/>
-        <v>18193.621577569749</v>
-      </c>
-      <c r="CS23" s="6">
-        <f t="shared" si="12"/>
-        <v>18011.685361794051</v>
-      </c>
-      <c r="CT23" s="6">
-        <f t="shared" si="12"/>
-        <v>17831.568508176111</v>
-      </c>
-      <c r="CU23" s="6">
-        <f t="shared" si="12"/>
-        <v>17653.25282309435</v>
-      </c>
-      <c r="CV23" s="6">
-        <f t="shared" si="12"/>
-        <v>17476.720294863408</v>
-      </c>
-      <c r="CW23" s="6">
-        <f t="shared" si="12"/>
-        <v>17301.953091914773</v>
-      </c>
-      <c r="CX23" s="6">
-        <f t="shared" si="12"/>
-        <v>17128.933560995625</v>
-      </c>
-      <c r="CY23" s="6">
-        <f t="shared" si="12"/>
-        <v>16957.644225385669</v>
-      </c>
-      <c r="CZ23" s="6">
-        <f t="shared" si="12"/>
-        <v>16788.067783131813</v>
-      </c>
-      <c r="DA23" s="6">
-        <f t="shared" si="12"/>
-        <v>16620.187105300494</v>
-      </c>
-      <c r="DB23" s="6">
-        <f t="shared" si="12"/>
-        <v>16453.985234247488</v>
-      </c>
-      <c r="DC23" s="6">
-        <f t="shared" si="12"/>
-        <v>16289.445381905012</v>
-      </c>
-      <c r="DD23" s="6">
-        <f t="shared" si="12"/>
-        <v>16126.550928085962</v>
-      </c>
-      <c r="DE23" s="6">
-        <f t="shared" si="12"/>
-        <v>15965.285418805102</v>
-      </c>
-      <c r="DF23" s="6">
-        <f t="shared" ref="DF23:EO23" si="13">+DE23*(1+$AU$28)</f>
-        <v>15805.632564617052</v>
-      </c>
-      <c r="DG23" s="6">
-        <f t="shared" si="13"/>
-        <v>15647.576238970882</v>
-      </c>
-      <c r="DH23" s="6">
-        <f t="shared" si="13"/>
-        <v>15491.100476581172</v>
-      </c>
-      <c r="DI23" s="6">
-        <f t="shared" si="13"/>
-        <v>15336.18947181536</v>
-      </c>
-      <c r="DJ23" s="6">
-        <f t="shared" si="13"/>
-        <v>15182.827577097207</v>
-      </c>
-      <c r="DK23" s="6">
-        <f t="shared" si="13"/>
-        <v>15030.999301326234</v>
-      </c>
-      <c r="DL23" s="6">
-        <f t="shared" si="13"/>
-        <v>14880.689308312971</v>
-      </c>
-      <c r="DM23" s="6">
-        <f t="shared" si="13"/>
-        <v>14731.88241522984</v>
-      </c>
-      <c r="DN23" s="6">
-        <f t="shared" si="13"/>
-        <v>14584.563591077542</v>
-      </c>
-      <c r="DO23" s="6">
-        <f t="shared" si="13"/>
-        <v>14438.717955166767</v>
-      </c>
-      <c r="DP23" s="6">
-        <f t="shared" si="13"/>
-        <v>14294.330775615099</v>
-      </c>
-      <c r="DQ23" s="6">
-        <f t="shared" si="13"/>
-        <v>14151.387467858947</v>
-      </c>
-      <c r="DR23" s="6">
-        <f t="shared" si="13"/>
-        <v>14009.873593180359</v>
-      </c>
-      <c r="DS23" s="6">
-        <f t="shared" si="13"/>
-        <v>13869.774857248554</v>
-      </c>
-      <c r="DT23" s="6">
-        <f t="shared" si="13"/>
-        <v>13731.077108676069</v>
-      </c>
-      <c r="DU23" s="6">
-        <f t="shared" si="13"/>
-        <v>13593.766337589308</v>
-      </c>
-      <c r="DV23" s="6">
-        <f t="shared" si="13"/>
-        <v>13457.828674213415</v>
-      </c>
-      <c r="DW23" s="6">
-        <f t="shared" si="13"/>
-        <v>13323.25038747128</v>
-      </c>
-      <c r="DX23" s="6">
-        <f t="shared" si="13"/>
-        <v>13190.017883596567</v>
-      </c>
-      <c r="DY23" s="6">
-        <f t="shared" si="13"/>
-        <v>13058.117704760602</v>
-      </c>
-      <c r="DZ23" s="6">
-        <f t="shared" si="13"/>
-        <v>12927.536527712995</v>
-      </c>
-      <c r="EA23" s="6">
-        <f t="shared" si="13"/>
-        <v>12798.261162435865</v>
-      </c>
-      <c r="EB23" s="6">
-        <f t="shared" si="13"/>
-        <v>12670.278550811507</v>
-      </c>
-      <c r="EC23" s="6">
-        <f t="shared" si="13"/>
-        <v>12543.575765303391</v>
-      </c>
-      <c r="ED23" s="6">
-        <f t="shared" si="13"/>
-        <v>12418.140007650356</v>
-      </c>
-      <c r="EE23" s="6">
-        <f t="shared" si="13"/>
-        <v>12293.958607573852</v>
-      </c>
-      <c r="EF23" s="6">
-        <f t="shared" si="13"/>
-        <v>12171.019021498112</v>
-      </c>
-      <c r="EG23" s="6">
-        <f t="shared" si="13"/>
-        <v>12049.308831283131</v>
-      </c>
-      <c r="EH23" s="6">
-        <f t="shared" si="13"/>
-        <v>11928.815742970301</v>
-      </c>
-      <c r="EI23" s="6">
-        <f t="shared" si="13"/>
-        <v>11809.527585540598</v>
-      </c>
-      <c r="EJ23" s="6">
-        <f t="shared" si="13"/>
-        <v>11691.432309685191</v>
-      </c>
-      <c r="EK23" s="6">
-        <f t="shared" si="13"/>
-        <v>11574.51798658834</v>
-      </c>
-      <c r="EL23" s="6">
-        <f t="shared" si="13"/>
-        <v>11458.772806722456</v>
-      </c>
-      <c r="EM23" s="6">
-        <f t="shared" si="13"/>
-        <v>11344.185078655231</v>
-      </c>
-      <c r="EN23" s="6">
-        <f t="shared" si="13"/>
-        <v>11230.743227868679</v>
-      </c>
-      <c r="EO23" s="6">
-        <f t="shared" si="13"/>
-        <v>11118.435795589992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:145" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+        <v>31169.667614331385</v>
+      </c>
+      <c r="AT23" s="5">
+        <f t="shared" ref="AT23:DE23" si="30">+AS23*(1+$AU$28)</f>
+        <v>30857.970938188071</v>
+      </c>
+      <c r="AU23" s="5">
+        <f t="shared" si="30"/>
+        <v>30549.391228806191</v>
+      </c>
+      <c r="AV23" s="5">
+        <f t="shared" si="30"/>
+        <v>30243.897316518131</v>
+      </c>
+      <c r="AW23" s="5">
+        <f t="shared" si="30"/>
+        <v>29941.458343352948</v>
+      </c>
+      <c r="AX23" s="5">
+        <f t="shared" si="30"/>
+        <v>29642.043759919419</v>
+      </c>
+      <c r="AY23" s="5">
+        <f t="shared" si="30"/>
+        <v>29345.623322320225</v>
+      </c>
+      <c r="AZ23" s="5">
+        <f t="shared" si="30"/>
+        <v>29052.167089097024</v>
+      </c>
+      <c r="BA23" s="5">
+        <f t="shared" si="30"/>
+        <v>28761.645418206052</v>
+      </c>
+      <c r="BB23" s="5">
+        <f t="shared" si="30"/>
+        <v>28474.02896402399</v>
+      </c>
+      <c r="BC23" s="5">
+        <f t="shared" si="30"/>
+        <v>28189.288674383748</v>
+      </c>
+      <c r="BD23" s="5">
+        <f t="shared" si="30"/>
+        <v>27907.395787639911</v>
+      </c>
+      <c r="BE23" s="5">
+        <f t="shared" si="30"/>
+        <v>27628.32182976351</v>
+      </c>
+      <c r="BF23" s="5">
+        <f t="shared" si="30"/>
+        <v>27352.038611465876</v>
+      </c>
+      <c r="BG23" s="5">
+        <f t="shared" si="30"/>
+        <v>27078.518225351218</v>
+      </c>
+      <c r="BH23" s="5">
+        <f t="shared" si="30"/>
+        <v>26807.733043097705</v>
+      </c>
+      <c r="BI23" s="5">
+        <f t="shared" si="30"/>
+        <v>26539.655712666729</v>
+      </c>
+      <c r="BJ23" s="5">
+        <f t="shared" si="30"/>
+        <v>26274.259155540061</v>
+      </c>
+      <c r="BK23" s="5">
+        <f t="shared" si="30"/>
+        <v>26011.51656398466</v>
+      </c>
+      <c r="BL23" s="5">
+        <f t="shared" si="30"/>
+        <v>25751.401398344813</v>
+      </c>
+      <c r="BM23" s="5">
+        <f t="shared" si="30"/>
+        <v>25493.887384361366</v>
+      </c>
+      <c r="BN23" s="5">
+        <f t="shared" si="30"/>
+        <v>25238.948510517752</v>
+      </c>
+      <c r="BO23" s="5">
+        <f t="shared" si="30"/>
+        <v>24986.559025412575</v>
+      </c>
+      <c r="BP23" s="5">
+        <f t="shared" si="30"/>
+        <v>24736.69343515845</v>
+      </c>
+      <c r="BQ23" s="5">
+        <f t="shared" si="30"/>
+        <v>24489.326500806867</v>
+      </c>
+      <c r="BR23" s="5">
+        <f t="shared" si="30"/>
+        <v>24244.433235798799</v>
+      </c>
+      <c r="BS23" s="5">
+        <f t="shared" si="30"/>
+        <v>24001.988903440812</v>
+      </c>
+      <c r="BT23" s="5">
+        <f t="shared" si="30"/>
+        <v>23761.969014406404</v>
+      </c>
+      <c r="BU23" s="5">
+        <f t="shared" si="30"/>
+        <v>23524.349324262341</v>
+      </c>
+      <c r="BV23" s="5">
+        <f t="shared" si="30"/>
+        <v>23289.105831019719</v>
+      </c>
+      <c r="BW23" s="5">
+        <f t="shared" si="30"/>
+        <v>23056.214772709522</v>
+      </c>
+      <c r="BX23" s="5">
+        <f t="shared" si="30"/>
+        <v>22825.652624982427</v>
+      </c>
+      <c r="BY23" s="5">
+        <f t="shared" si="30"/>
+        <v>22597.396098732603</v>
+      </c>
+      <c r="BZ23" s="5">
+        <f t="shared" si="30"/>
+        <v>22371.422137745278</v>
+      </c>
+      <c r="CA23" s="5">
+        <f t="shared" si="30"/>
+        <v>22147.707916367825</v>
+      </c>
+      <c r="CB23" s="5">
+        <f t="shared" si="30"/>
+        <v>21926.230837204144</v>
+      </c>
+      <c r="CC23" s="5">
+        <f t="shared" si="30"/>
+        <v>21706.968528832102</v>
+      </c>
+      <c r="CD23" s="5">
+        <f t="shared" si="30"/>
+        <v>21489.898843543779</v>
+      </c>
+      <c r="CE23" s="5">
+        <f t="shared" si="30"/>
+        <v>21274.999855108341</v>
+      </c>
+      <c r="CF23" s="5">
+        <f t="shared" si="30"/>
+        <v>21062.249856557257</v>
+      </c>
+      <c r="CG23" s="5">
+        <f t="shared" si="30"/>
+        <v>20851.627357991685</v>
+      </c>
+      <c r="CH23" s="5">
+        <f t="shared" si="30"/>
+        <v>20643.111084411768</v>
+      </c>
+      <c r="CI23" s="5">
+        <f t="shared" si="30"/>
+        <v>20436.67997356765</v>
+      </c>
+      <c r="CJ23" s="5">
+        <f t="shared" si="30"/>
+        <v>20232.313173831975</v>
+      </c>
+      <c r="CK23" s="5">
+        <f t="shared" si="30"/>
+        <v>20029.990042093654</v>
+      </c>
+      <c r="CL23" s="5">
+        <f t="shared" si="30"/>
+        <v>19829.690141672716</v>
+      </c>
+      <c r="CM23" s="5">
+        <f t="shared" si="30"/>
+        <v>19631.393240255988</v>
+      </c>
+      <c r="CN23" s="5">
+        <f t="shared" si="30"/>
+        <v>19435.079307853426</v>
+      </c>
+      <c r="CO23" s="5">
+        <f t="shared" si="30"/>
+        <v>19240.728514774892</v>
+      </c>
+      <c r="CP23" s="5">
+        <f t="shared" si="30"/>
+        <v>19048.321229627141</v>
+      </c>
+      <c r="CQ23" s="5">
+        <f t="shared" si="30"/>
+        <v>18857.838017330869</v>
+      </c>
+      <c r="CR23" s="5">
+        <f t="shared" si="30"/>
+        <v>18669.25963715756</v>
+      </c>
+      <c r="CS23" s="5">
+        <f t="shared" si="30"/>
+        <v>18482.567040785983</v>
+      </c>
+      <c r="CT23" s="5">
+        <f t="shared" si="30"/>
+        <v>18297.741370378124</v>
+      </c>
+      <c r="CU23" s="5">
+        <f t="shared" si="30"/>
+        <v>18114.763956674342</v>
+      </c>
+      <c r="CV23" s="5">
+        <f t="shared" si="30"/>
+        <v>17933.616317107597</v>
+      </c>
+      <c r="CW23" s="5">
+        <f t="shared" si="30"/>
+        <v>17754.280153936521</v>
+      </c>
+      <c r="CX23" s="5">
+        <f t="shared" si="30"/>
+        <v>17576.737352397155</v>
+      </c>
+      <c r="CY23" s="5">
+        <f t="shared" si="30"/>
+        <v>17400.969978873181</v>
+      </c>
+      <c r="CZ23" s="5">
+        <f t="shared" si="30"/>
+        <v>17226.960279084451</v>
+      </c>
+      <c r="DA23" s="5">
+        <f t="shared" si="30"/>
+        <v>17054.690676293605</v>
+      </c>
+      <c r="DB23" s="5">
+        <f t="shared" si="30"/>
+        <v>16884.14376953067</v>
+      </c>
+      <c r="DC23" s="5">
+        <f t="shared" si="30"/>
+        <v>16715.302331835363</v>
+      </c>
+      <c r="DD23" s="5">
+        <f t="shared" si="30"/>
+        <v>16548.149308517008</v>
+      </c>
+      <c r="DE23" s="5">
+        <f t="shared" si="30"/>
+        <v>16382.667815431838</v>
+      </c>
+      <c r="DF23" s="5">
+        <f t="shared" ref="DF23:EO23" si="31">+DE23*(1+$AU$28)</f>
+        <v>16218.841137277519</v>
+      </c>
+      <c r="DG23" s="5">
+        <f t="shared" si="31"/>
+        <v>16056.652725904743</v>
+      </c>
+      <c r="DH23" s="5">
+        <f t="shared" si="31"/>
+        <v>15896.086198645697</v>
+      </c>
+      <c r="DI23" s="5">
+        <f t="shared" si="31"/>
+        <v>15737.125336659239</v>
+      </c>
+      <c r="DJ23" s="5">
+        <f t="shared" si="31"/>
+        <v>15579.754083292646</v>
+      </c>
+      <c r="DK23" s="5">
+        <f t="shared" si="31"/>
+        <v>15423.95654245972</v>
+      </c>
+      <c r="DL23" s="5">
+        <f t="shared" si="31"/>
+        <v>15269.716977035123</v>
+      </c>
+      <c r="DM23" s="5">
+        <f t="shared" si="31"/>
+        <v>15117.019807264771</v>
+      </c>
+      <c r="DN23" s="5">
+        <f t="shared" si="31"/>
+        <v>14965.849609192122</v>
+      </c>
+      <c r="DO23" s="5">
+        <f t="shared" si="31"/>
+        <v>14816.191113100202</v>
+      </c>
+      <c r="DP23" s="5">
+        <f t="shared" si="31"/>
+        <v>14668.029201969199</v>
+      </c>
+      <c r="DQ23" s="5">
+        <f t="shared" si="31"/>
+        <v>14521.348909949507</v>
+      </c>
+      <c r="DR23" s="5">
+        <f t="shared" si="31"/>
+        <v>14376.135420850012</v>
+      </c>
+      <c r="DS23" s="5">
+        <f t="shared" si="31"/>
+        <v>14232.374066641512</v>
+      </c>
+      <c r="DT23" s="5">
+        <f t="shared" si="31"/>
+        <v>14090.050325975097</v>
+      </c>
+      <c r="DU23" s="5">
+        <f t="shared" si="31"/>
+        <v>13949.149822715346</v>
+      </c>
+      <c r="DV23" s="5">
+        <f t="shared" si="31"/>
+        <v>13809.658324488193</v>
+      </c>
+      <c r="DW23" s="5">
+        <f t="shared" si="31"/>
+        <v>13671.561741243311</v>
+      </c>
+      <c r="DX23" s="5">
+        <f t="shared" si="31"/>
+        <v>13534.846123830877</v>
+      </c>
+      <c r="DY23" s="5">
+        <f t="shared" si="31"/>
+        <v>13399.497662592568</v>
+      </c>
+      <c r="DZ23" s="5">
+        <f t="shared" si="31"/>
+        <v>13265.502685966643</v>
+      </c>
+      <c r="EA23" s="5">
+        <f t="shared" si="31"/>
+        <v>13132.847659106978</v>
+      </c>
+      <c r="EB23" s="5">
+        <f t="shared" si="31"/>
+        <v>13001.519182515907</v>
+      </c>
+      <c r="EC23" s="5">
+        <f t="shared" si="31"/>
+        <v>12871.503990690748</v>
+      </c>
+      <c r="ED23" s="5">
+        <f t="shared" si="31"/>
+        <v>12742.788950783841</v>
+      </c>
+      <c r="EE23" s="5">
+        <f t="shared" si="31"/>
+        <v>12615.361061276002</v>
+      </c>
+      <c r="EF23" s="5">
+        <f t="shared" si="31"/>
+        <v>12489.207450663242</v>
+      </c>
+      <c r="EG23" s="5">
+        <f t="shared" si="31"/>
+        <v>12364.315376156608</v>
+      </c>
+      <c r="EH23" s="5">
+        <f t="shared" si="31"/>
+        <v>12240.672222395042</v>
+      </c>
+      <c r="EI23" s="5">
+        <f t="shared" si="31"/>
+        <v>12118.265500171092</v>
+      </c>
+      <c r="EJ23" s="5">
+        <f t="shared" si="31"/>
+        <v>11997.082845169381</v>
+      </c>
+      <c r="EK23" s="5">
+        <f t="shared" si="31"/>
+        <v>11877.112016717687</v>
+      </c>
+      <c r="EL23" s="5">
+        <f t="shared" si="31"/>
+        <v>11758.34089655051</v>
+      </c>
+      <c r="EM23" s="5">
+        <f t="shared" si="31"/>
+        <v>11640.757487585004</v>
+      </c>
+      <c r="EN23" s="5">
+        <f t="shared" si="31"/>
+        <v>11524.349912709155</v>
+      </c>
+      <c r="EO23" s="5">
+        <f t="shared" si="31"/>
+        <v>11409.106413582063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:145" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="5">
-        <f>+B23/B25</f>
+      <c r="B24" s="4">
+        <f t="shared" ref="B24:P24" si="32">+B23/B25</f>
         <v>1.5694243620305599</v>
       </c>
-      <c r="C24" s="5">
-        <f>+C23/C25</f>
+      <c r="C24" s="4">
+        <f t="shared" si="32"/>
         <v>1.6016822576841445</v>
       </c>
-      <c r="D24" s="5">
-        <f>+D23/D25</f>
+      <c r="D24" s="4">
+        <f t="shared" si="32"/>
         <v>1.2726266698284721</v>
       </c>
-      <c r="E24" s="5">
-        <f>+E23/E25</f>
+      <c r="E24" s="4">
+        <f t="shared" si="32"/>
         <v>1.1541357853434271</v>
       </c>
-      <c r="F24" s="5">
-        <f>+F23/F25</f>
+      <c r="F24" s="4">
+        <f t="shared" si="32"/>
         <v>1.5274005432177664</v>
       </c>
-      <c r="G24" s="5">
-        <f>+G23/G25</f>
+      <c r="G24" s="4">
+        <f t="shared" si="32"/>
         <v>1.5331291310656134</v>
       </c>
-      <c r="H24" s="5">
-        <f>+H23/H25</f>
+      <c r="H24" s="4">
+        <f t="shared" si="32"/>
         <v>1.3120653404496201</v>
       </c>
-      <c r="I24" s="5">
-        <f>+I23/I25</f>
+      <c r="I24" s="4">
+        <f t="shared" si="32"/>
         <v>1.290361640297061</v>
       </c>
-      <c r="J24" s="5">
-        <f>+J23/J25</f>
+      <c r="J24" s="4">
+        <f t="shared" si="32"/>
         <v>1.7869263089851326</v>
       </c>
-      <c r="K24" s="5">
-        <f>+K23/K25</f>
+      <c r="K24" s="4">
+        <f t="shared" si="32"/>
         <v>1.8866472208718197</v>
       </c>
-      <c r="L24" s="5">
-        <f>+L23/L25</f>
+      <c r="L24" s="4">
+        <f t="shared" si="32"/>
         <v>1.4235436893203883</v>
       </c>
-      <c r="M24" s="5">
-        <f>+M23/M25</f>
+      <c r="M24" s="4">
+        <f t="shared" si="32"/>
         <v>1.233009708737864</v>
       </c>
-      <c r="N24" s="5">
-        <f>+N23/N25</f>
+      <c r="N24" s="4">
+        <f t="shared" si="32"/>
         <v>1.8418491484184916</v>
       </c>
-      <c r="O24" s="5">
-        <f>+O23/O25</f>
+      <c r="O24" s="4">
+        <f t="shared" si="32"/>
         <v>1.8034254098694114</v>
       </c>
-      <c r="U24" s="5">
-        <f>+U23/U25</f>
+      <c r="P24" s="4">
+        <f t="shared" si="32"/>
+        <v>1.4629765695158787</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" ref="U24:AC24" si="33">+U23/U25</f>
         <v>3.8180284066938546</v>
       </c>
-      <c r="V24" s="5">
-        <f>+V23/V25</f>
+      <c r="V24" s="4">
+        <f t="shared" si="33"/>
         <v>4.2066851554517584</v>
       </c>
-      <c r="W24" s="5">
-        <f>+W23/W25</f>
+      <c r="W24" s="4">
+        <f t="shared" si="33"/>
         <v>4.1400986185869693</v>
       </c>
-      <c r="X24" s="5">
-        <f>+X23/X25</f>
+      <c r="X24" s="4">
+        <f t="shared" si="33"/>
         <v>4.5048237842094903</v>
       </c>
-      <c r="Y24" s="5">
-        <f>+Y23/Y25</f>
+      <c r="Y24" s="4">
+        <f t="shared" si="33"/>
         <v>4.8232919491202679</v>
       </c>
-      <c r="Z24" s="5">
-        <f>+Z23/Z25</f>
+      <c r="Z24" s="4">
+        <f t="shared" si="33"/>
         <v>5.4848135332564398</v>
       </c>
-      <c r="AA24" s="5">
-        <f>+AA23/AA25</f>
+      <c r="AA24" s="4">
+        <f t="shared" si="33"/>
         <v>5.6015911149619946</v>
       </c>
-      <c r="AB24" s="5">
-        <f>+AB23/AB25</f>
+      <c r="AB24" s="4">
+        <f t="shared" si="33"/>
         <v>5.6644792463464713</v>
       </c>
-      <c r="AC24" s="5">
-        <f>+AC23/AC25</f>
+      <c r="AC24" s="4">
+        <f t="shared" si="33"/>
         <v>6.329948622517092</v>
       </c>
-      <c r="AD24" s="5">
-        <f t="shared" ref="AD24:AR24" si="14">+AD23/AD25</f>
-        <v>6.512402671331893</v>
-      </c>
-      <c r="AE24" s="5">
-        <f t="shared" si="14"/>
-        <v>7.0004437684656766</v>
-      </c>
-      <c r="AF24" s="5">
-        <f t="shared" si="14"/>
-        <v>7.5188448948284847</v>
-      </c>
-      <c r="AG24" s="5">
-        <f t="shared" si="14"/>
-        <v>8.0692787071005938</v>
-      </c>
-      <c r="AH24" s="5">
-        <f t="shared" si="14"/>
-        <v>8.6535000528286741</v>
-      </c>
-      <c r="AI24" s="5">
-        <f t="shared" si="14"/>
-        <v>9.2733494316373672</v>
-      </c>
-      <c r="AJ24" s="5">
-        <f t="shared" si="14"/>
-        <v>9.930756561318999</v>
-      </c>
-      <c r="AK24" s="5">
-        <f t="shared" si="14"/>
-        <v>10.627744048432108</v>
-      </c>
-      <c r="AL24" s="5">
-        <f t="shared" si="14"/>
-        <v>11.366431162605091</v>
-      </c>
-      <c r="AM24" s="5">
-        <f t="shared" si="14"/>
-        <v>12.149037713256075</v>
-      </c>
-      <c r="AN24" s="5">
-        <f t="shared" si="14"/>
-        <v>12.977888026899722</v>
-      </c>
-      <c r="AO24" s="5">
-        <f t="shared" si="14"/>
-        <v>13.855415022610925</v>
-      </c>
-      <c r="AP24" s="5">
-        <f t="shared" si="14"/>
-        <v>14.784164382549527</v>
-      </c>
-      <c r="AQ24" s="5">
-        <f t="shared" si="14"/>
-        <v>15.766798813713018</v>
-      </c>
-      <c r="AR24" s="5">
-        <f t="shared" si="14"/>
-        <v>16.806102396270177</v>
+      <c r="AD24" s="4">
+        <f t="shared" ref="AD24:AR24" si="34">+AD23/AD25</f>
+        <v>6.5236936637189782</v>
+      </c>
+      <c r="AE24" s="4">
+        <f t="shared" si="34"/>
+        <v>7.0245333643446823</v>
+      </c>
+      <c r="AF24" s="4">
+        <f t="shared" si="34"/>
+        <v>7.5574163076958589</v>
+      </c>
+      <c r="AG24" s="4">
+        <f t="shared" si="34"/>
+        <v>8.124209421217607</v>
+      </c>
+      <c r="AH24" s="4">
+        <f t="shared" si="34"/>
+        <v>8.7268822970681263</v>
+      </c>
+      <c r="AI24" s="4">
+        <f t="shared" si="34"/>
+        <v>9.3675126193849785</v>
+      </c>
+      <c r="AJ24" s="4">
+        <f t="shared" si="34"/>
+        <v>10.048291870344952</v>
+      </c>
+      <c r="AK24" s="4">
+        <f t="shared" si="34"/>
+        <v>10.771531329030431</v>
+      </c>
+      <c r="AL24" s="4">
+        <f t="shared" si="34"/>
+        <v>11.539668377807484</v>
+      </c>
+      <c r="AM24" s="4">
+        <f t="shared" si="34"/>
+        <v>12.35527313164719</v>
+      </c>
+      <c r="AN24" s="4">
+        <f t="shared" si="34"/>
+        <v>13.221055406583163</v>
+      </c>
+      <c r="AO24" s="4">
+        <f t="shared" si="34"/>
+        <v>14.139872044296947</v>
+      </c>
+      <c r="AP24" s="4">
+        <f t="shared" si="34"/>
+        <v>15.114734610660285</v>
+      </c>
+      <c r="AQ24" s="4">
+        <f t="shared" si="34"/>
+        <v>16.148817486941681</v>
+      </c>
+      <c r="AR24" s="4">
+        <f t="shared" si="34"/>
+        <v>17.245466373305447</v>
       </c>
     </row>
     <row r="25" spans="1:145" x14ac:dyDescent="0.2">
@@ -3874,7 +4019,10 @@
       <c r="O25" s="1">
         <v>2458.1</v>
       </c>
-      <c r="S25" s="4"/>
+      <c r="P25" s="1">
+        <v>2449.8000000000002</v>
+      </c>
+      <c r="S25" s="3"/>
       <c r="U25" s="1">
         <v>2844.4</v>
       </c>
@@ -3907,872 +4055,892 @@
         <v>2422.462</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" ref="AE25:AR25" si="15">+AD25*0.98</f>
+        <f t="shared" ref="AE25:AR25" si="35">+AD25*0.98</f>
         <v>2374.0127600000001</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>2326.5325048</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>2280.0018547039999</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>2234.4018176099198</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>2189.7137812577212</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>2145.9195056325666</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>2103.0011155199154</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>2060.941093209517</v>
       </c>
       <c r="AM25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>2019.7222713453266</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>1979.3278259184201</v>
       </c>
       <c r="AO25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>1939.7412694000516</v>
       </c>
       <c r="AP25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>1900.9464440120505</v>
       </c>
       <c r="AQ25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>1862.9275151318095</v>
       </c>
       <c r="AR25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>1825.6689648291733</v>
       </c>
     </row>
-    <row r="27" spans="1:145" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:145" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="4">
-        <f>+B17/B15</f>
+      <c r="B27" s="3">
+        <f t="shared" ref="B27:O27" si="36">+B17/B15</f>
         <v>0.4903628675385977</v>
       </c>
-      <c r="C27" s="4">
-        <f>+C17/C15</f>
+      <c r="C27" s="3">
+        <f t="shared" si="36"/>
         <v>0.49105140075406861</v>
       </c>
-      <c r="D27" s="4">
-        <f>+D17/D15</f>
+      <c r="D27" s="3">
+        <f t="shared" si="36"/>
         <v>0.46721015427480522</v>
       </c>
-      <c r="E27" s="4">
-        <f>+E17/E15</f>
+      <c r="E27" s="3">
+        <f t="shared" si="36"/>
         <v>0.44647706892134253</v>
       </c>
-      <c r="F27" s="4">
-        <f>+F17/F15</f>
+      <c r="F27" s="3">
+        <f t="shared" si="36"/>
         <v>0.47380166893071995</v>
       </c>
-      <c r="G27" s="4">
-        <f>+G17/G15</f>
+      <c r="G27" s="3">
+        <f t="shared" si="36"/>
         <v>0.47542483030857363</v>
       </c>
-      <c r="H27" s="4">
-        <f>+H17/H15</f>
+      <c r="H27" s="3">
+        <f t="shared" si="36"/>
         <v>0.48156268686466014</v>
       </c>
-      <c r="I27" s="4">
-        <f>+I17/I15</f>
+      <c r="I27" s="3">
+        <f t="shared" si="36"/>
         <v>0.48362769425388019</v>
       </c>
-      <c r="J27" s="4">
-        <f>+J17/J15</f>
+      <c r="J27" s="3">
+        <f t="shared" si="36"/>
         <v>0.51986648987243378</v>
       </c>
-      <c r="K27" s="4">
-        <f>+K17/K15</f>
+      <c r="K27" s="3">
+        <f t="shared" si="36"/>
         <v>0.52688773844503523</v>
       </c>
-      <c r="L27" s="4">
-        <f>+L17/L15</f>
+      <c r="L27" s="3">
+        <f t="shared" si="36"/>
         <v>0.51200792275315676</v>
       </c>
-      <c r="M27" s="4">
-        <f>+M17/M15</f>
+      <c r="M27" s="3">
+        <f t="shared" si="36"/>
         <v>0.49600623417105005</v>
       </c>
-      <c r="N27" s="4">
-        <f>+N17/N15</f>
+      <c r="N27" s="3">
+        <f t="shared" si="36"/>
         <v>0.52058701752771774</v>
       </c>
-      <c r="O27" s="4">
-        <f>+O17/O15</f>
+      <c r="O27" s="3">
+        <f t="shared" si="36"/>
         <v>0.52390092313316883</v>
       </c>
-      <c r="U27" s="4">
-        <f>+U17/U15</f>
+      <c r="P27" s="3">
+        <f t="shared" ref="P27" si="37">+P17/P15</f>
+        <v>0.5098098705501618</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" ref="U27:AC27" si="38">+U17/U15</f>
         <v>0.49602597283266209</v>
       </c>
-      <c r="V27" s="4">
-        <f>+V17/V15</f>
+      <c r="V27" s="3">
+        <f t="shared" si="38"/>
         <v>0.49990777460112518</v>
       </c>
-      <c r="W27" s="4">
-        <f>+W17/W15</f>
+      <c r="W27" s="3">
+        <f t="shared" si="38"/>
         <v>0.48725161599233902</v>
       </c>
-      <c r="X27" s="4">
-        <f>+X17/X15</f>
+      <c r="X27" s="3">
+        <f t="shared" si="38"/>
         <v>0.48631877548608238</v>
       </c>
-      <c r="Y27" s="4">
-        <f>+Y17/Y15</f>
+      <c r="Y27" s="3">
+        <f t="shared" si="38"/>
         <v>0.5031712473572939</v>
       </c>
-      <c r="Z27" s="4">
-        <f>+Z17/Z15</f>
+      <c r="Z27" s="3">
+        <f t="shared" si="38"/>
         <v>0.51249375968890409</v>
       </c>
-      <c r="AA27" s="4">
-        <f>+AA17/AA15</f>
+      <c r="AA27" s="3">
+        <f t="shared" si="38"/>
         <v>0.47426640228465961</v>
       </c>
-      <c r="AB27" s="4">
-        <f>+AB17/AB15</f>
+      <c r="AB27" s="3">
+        <f t="shared" si="38"/>
         <v>0.47857473843377313</v>
       </c>
-      <c r="AC27" s="4">
-        <f>+AC17/AC15</f>
+      <c r="AC27" s="3">
+        <f t="shared" si="38"/>
         <v>0.51393995644879165</v>
       </c>
-      <c r="AD27" s="4">
-        <f t="shared" ref="AD27:AR27" si="16">+AD17/AD15</f>
-        <v>0.5162994712233121</v>
-      </c>
-      <c r="AE27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.51864753204261638</v>
-      </c>
-      <c r="AF27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.52098419450842903</v>
-      </c>
-      <c r="AG27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.52330951395256298</v>
-      </c>
-      <c r="AH27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.5256235454382302</v>
-      </c>
-      <c r="AI27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.52792634376134562</v>
-      </c>
-      <c r="AJ27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.53021796345182459</v>
-      </c>
-      <c r="AK27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.53249845877487412</v>
-      </c>
-      <c r="AL27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.53476788373227768</v>
-      </c>
-      <c r="AM27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.53702629206367447</v>
-      </c>
-      <c r="AN27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.53927373724783145</v>
-      </c>
-      <c r="AO27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.54151027250391004</v>
-      </c>
-      <c r="AP27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.54373595079272607</v>
-      </c>
-      <c r="AQ27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.54595082481800405</v>
-      </c>
-      <c r="AR27" s="4">
-        <f t="shared" si="16"/>
-        <v>0.54815494702762546</v>
-      </c>
-      <c r="AT27" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU27" s="4">
+      <c r="AD27" s="3">
+        <f t="shared" ref="AD27:AR27" si="39">+AD17/AD15</f>
+        <v>0.5163226037211015</v>
+      </c>
+      <c r="AE27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.51869357134991967</v>
+      </c>
+      <c r="AF27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.52105291658840058</v>
+      </c>
+      <c r="AG27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.52340069640904574</v>
+      </c>
+      <c r="AH27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.52573696750507981</v>
+      </c>
+      <c r="AI27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.52806178629181966</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.53037520890803624</v>
+      </c>
+      <c r="AK27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.53267729121731067</v>
+      </c>
+      <c r="AL27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.53496808880938274</v>
+      </c>
+      <c r="AM27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.53724765700149368</v>
+      </c>
+      <c r="AN27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.53951605083972165</v>
+      </c>
+      <c r="AO27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.54177332510031129</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.54401953429099614</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.54625473265231472</v>
+      </c>
+      <c r="AR27" s="3">
+        <f t="shared" si="39"/>
+        <v>0.54847897415892111</v>
+      </c>
+      <c r="AT27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU27" s="3">
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:145" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:145" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4">
-        <f>+B19/B15</f>
+      <c r="B28" s="3">
+        <f t="shared" ref="B28:O28" si="40">+B19/B15</f>
         <v>0.24697610384501917</v>
       </c>
-      <c r="C28" s="4">
-        <f>+C19/C15</f>
+      <c r="C28" s="3">
+        <f t="shared" si="40"/>
         <v>0.24664725814919106</v>
       </c>
-      <c r="D28" s="4">
-        <f>+D19/D15</f>
+      <c r="D28" s="3">
+        <f t="shared" si="40"/>
         <v>0.20762602548888087</v>
       </c>
-      <c r="E28" s="4">
-        <f>+E19/E15</f>
+      <c r="E28" s="3">
+        <f t="shared" si="40"/>
         <v>0.18437099666922879</v>
       </c>
-      <c r="F28" s="4">
-        <f>+F19/F15</f>
+      <c r="F28" s="3">
+        <f t="shared" si="40"/>
         <v>0.23961769842810013</v>
       </c>
-      <c r="G28" s="4">
-        <f>+G19/G15</f>
+      <c r="G28" s="3">
+        <f t="shared" si="40"/>
         <v>0.23034708515861937</v>
       </c>
-      <c r="H28" s="4">
-        <f>+H19/H15</f>
+      <c r="H28" s="3">
+        <f t="shared" si="40"/>
         <v>0.21168028702411801</v>
       </c>
-      <c r="I28" s="4">
-        <f>+I19/I15</f>
+      <c r="I28" s="3">
+        <f t="shared" si="40"/>
         <v>0.2025008514572082</v>
       </c>
-      <c r="J28" s="4">
-        <f>+J19/J15</f>
+      <c r="J28" s="3">
+        <f t="shared" si="40"/>
         <v>0.26363677929678569</v>
       </c>
-      <c r="K28" s="4">
-        <f>+K19/K15</f>
+      <c r="K28" s="3">
+        <f t="shared" si="40"/>
         <v>0.26934378060724778</v>
       </c>
-      <c r="L28" s="4">
-        <f>+L19/L15</f>
+      <c r="L28" s="3">
+        <f t="shared" si="40"/>
         <v>0.22084674424362466</v>
       </c>
-      <c r="M28" s="4">
-        <f>+M19/M15</f>
+      <c r="M28" s="3">
+        <f t="shared" si="40"/>
         <v>0.18921683226183519</v>
       </c>
-      <c r="N28" s="4">
-        <f>+N19/N15</f>
+      <c r="N28" s="3">
+        <f t="shared" si="40"/>
         <v>0.26668813543727288</v>
       </c>
-      <c r="O28" s="4">
-        <f>+O19/O15</f>
+      <c r="O28" s="3">
+        <f t="shared" si="40"/>
         <v>0.26236175852298693</v>
       </c>
-      <c r="U28" s="4">
-        <f>+U19/U15</f>
+      <c r="P28" s="3">
+        <f t="shared" ref="P28" si="41">+P19/P15</f>
+        <v>0.23048139158576053</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" ref="U28:AC28" si="42">+U19/U15</f>
         <v>0.20583776168088333</v>
       </c>
-      <c r="V28" s="4">
-        <f>+V19/V15</f>
+      <c r="V28" s="3">
+        <f t="shared" si="42"/>
         <v>0.21450090688308893</v>
       </c>
-      <c r="W28" s="4">
-        <f>+W19/W15</f>
+      <c r="W28" s="3">
+        <f t="shared" si="42"/>
         <v>0.20515621259276992</v>
       </c>
-      <c r="X28" s="4">
-        <f>+X19/X15</f>
+      <c r="X28" s="3">
+        <f t="shared" si="42"/>
         <v>0.20436144435908044</v>
       </c>
-      <c r="Y28" s="4">
-        <f>+Y19/Y15</f>
+      <c r="Y28" s="3">
+        <f t="shared" si="42"/>
         <v>0.22136715997181114</v>
       </c>
-      <c r="Z28" s="4">
-        <f>+Z19/Z15</f>
+      <c r="Z28" s="3">
+        <f t="shared" si="42"/>
         <v>0.23629102183452008</v>
       </c>
-      <c r="AA28" s="4">
-        <f>+AA19/AA15</f>
+      <c r="AA28" s="3">
+        <f t="shared" si="42"/>
         <v>0.22214324017608839</v>
       </c>
-      <c r="AB28" s="4">
-        <f>+AB19/AB15</f>
+      <c r="AB28" s="3">
+        <f t="shared" si="42"/>
         <v>0.2211301612077165</v>
       </c>
-      <c r="AC28" s="4">
-        <f>+AC19/AC15</f>
+      <c r="AC28" s="3">
+        <f t="shared" si="42"/>
         <v>0.23662823213032044</v>
       </c>
-      <c r="AD28" s="4">
-        <f t="shared" ref="AD28:AR28" si="17">+AD19/AD15</f>
-        <v>0.23629540006679747</v>
-      </c>
-      <c r="AE28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23592497475836866</v>
-      </c>
-      <c r="AF28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23551675802724681</v>
-      </c>
-      <c r="AG28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23507054896185473</v>
-      </c>
-      <c r="AH28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23458614389421414</v>
-      </c>
-      <c r="AI28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23406333637709639</v>
-      </c>
-      <c r="AJ28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23350191716093216</v>
-      </c>
-      <c r="AK28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23290167417047783</v>
-      </c>
-      <c r="AL28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23226239248123678</v>
-      </c>
-      <c r="AM28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23158385429563313</v>
-      </c>
-      <c r="AN28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23086583891893539</v>
-      </c>
-      <c r="AO28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23010812273492759</v>
-      </c>
-      <c r="AP28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.2293104791813263</v>
-      </c>
-      <c r="AQ28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.22847267872494023</v>
-      </c>
-      <c r="AR28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.22759448883657071</v>
-      </c>
-      <c r="AT28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU28" s="4">
+      <c r="AD28" s="3">
+        <f t="shared" ref="AD28:AR28" si="43">+AD19/AD15</f>
+        <v>0.23901087940263033</v>
+      </c>
+      <c r="AE28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.24138184703144852</v>
+      </c>
+      <c r="AF28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.24374119226992935</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.24608897209057451</v>
+      </c>
+      <c r="AH28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.24842524318660864</v>
+      </c>
+      <c r="AI28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.25075006197334848</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.25306348458956507</v>
+      </c>
+      <c r="AK28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.25536556689883944</v>
+      </c>
+      <c r="AL28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.25765636449091145</v>
+      </c>
+      <c r="AM28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.25993593268302245</v>
+      </c>
+      <c r="AN28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.26220432652125042</v>
+      </c>
+      <c r="AO28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.26446160078184006</v>
+      </c>
+      <c r="AP28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.26670780997252486</v>
+      </c>
+      <c r="AQ28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.26894300833384355</v>
+      </c>
+      <c r="AR28" s="3">
+        <f t="shared" si="43"/>
+        <v>0.27116724984044982</v>
+      </c>
+      <c r="AT28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU28" s="3">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:145" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:145" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="4">
-        <f>+B23/B15</f>
+      <c r="B29" s="3">
+        <f t="shared" ref="B29:O29" si="44">+B23/B15</f>
         <v>0.19746287737240634</v>
       </c>
-      <c r="C29" s="4">
-        <f>+C23/C15</f>
+      <c r="C29" s="3">
+        <f t="shared" si="44"/>
         <v>0.19448289027824178</v>
       </c>
-      <c r="D29" s="4">
-        <f>+D23/D15</f>
+      <c r="D29" s="3">
+        <f t="shared" si="44"/>
         <v>0.16614209793096332</v>
       </c>
-      <c r="E29" s="4">
-        <f>+E23/E15</f>
+      <c r="E29" s="3">
+        <f t="shared" si="44"/>
         <v>0.14921854983346144</v>
       </c>
-      <c r="F29" s="4">
-        <f>+F23/F15</f>
+      <c r="F29" s="3">
+        <f t="shared" si="44"/>
         <v>0.18552299631282748</v>
       </c>
-      <c r="G29" s="4">
-        <f>+G23/G15</f>
+      <c r="G29" s="3">
+        <f t="shared" si="44"/>
         <v>0.18312232224522215</v>
       </c>
-      <c r="H29" s="4">
-        <f>+H23/H15</f>
+      <c r="H29" s="3">
+        <f t="shared" si="44"/>
         <v>0.16170021925453459</v>
       </c>
-      <c r="I29" s="4">
-        <f>+I23/I15</f>
+      <c r="I29" s="3">
+        <f t="shared" si="44"/>
         <v>0.15554906826254075</v>
       </c>
-      <c r="J29" s="4">
-        <f>+J23/J15</f>
+      <c r="J29" s="3">
+        <f t="shared" si="44"/>
         <v>0.20223126514562662</v>
       </c>
-      <c r="K29" s="4">
-        <f>+K23/K15</f>
+      <c r="K29" s="3">
+        <f t="shared" si="44"/>
         <v>0.2172006902663122</v>
       </c>
-      <c r="L29" s="4">
-        <f>+L23/L15</f>
+      <c r="L29" s="3">
+        <f t="shared" si="44"/>
         <v>0.17425105224065363</v>
       </c>
-      <c r="M29" s="4">
-        <f>+M23/M15</f>
+      <c r="M29" s="3">
+        <f t="shared" si="44"/>
         <v>0.14845119812974869</v>
       </c>
-      <c r="N29" s="4">
-        <f>+N23/N15</f>
+      <c r="N29" s="3">
+        <f t="shared" si="44"/>
         <v>0.20895247734277958</v>
       </c>
-      <c r="O29" s="4">
-        <f>+O23/O15</f>
+      <c r="O29" s="3">
+        <f t="shared" si="44"/>
         <v>0.20258660085915364</v>
       </c>
-      <c r="U29" s="4">
-        <f>+U23/U15</f>
+      <c r="P29" s="3">
+        <f t="shared" ref="P29" si="45">+P23/P15</f>
+        <v>0.18122977346278318</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" ref="U29:AC29" si="46">+U23/U15</f>
         <v>0.16631188839032757</v>
       </c>
-      <c r="V29" s="4">
-        <f>+V23/V15</f>
+      <c r="V29" s="3">
+        <f t="shared" si="46"/>
         <v>0.17719573303821207</v>
       </c>
-      <c r="W29" s="4">
-        <f>+W23/W15</f>
+      <c r="W29" s="3">
+        <f t="shared" si="46"/>
         <v>0.16457684941345463</v>
       </c>
-      <c r="X29" s="4">
-        <f>+X23/X15</f>
+      <c r="X29" s="3">
+        <f t="shared" si="46"/>
         <v>0.16902074345487855</v>
       </c>
-      <c r="Y29" s="4">
-        <f>+Y23/Y15</f>
+      <c r="Y29" s="3">
+        <f t="shared" si="46"/>
         <v>0.17850599013389712</v>
       </c>
-      <c r="Z29" s="4">
-        <f>+Z23/Z15</f>
+      <c r="Z29" s="3">
+        <f t="shared" si="46"/>
         <v>0.18741953283060511</v>
       </c>
-      <c r="AA29" s="4">
-        <f>+AA23/AA15</f>
+      <c r="AA29" s="3">
+        <f t="shared" si="46"/>
         <v>0.177372890867597</v>
       </c>
-      <c r="AB29" s="4">
-        <f>+AB23/AB15</f>
+      <c r="AB29" s="3">
+        <f t="shared" si="46"/>
         <v>0.17157281174548203</v>
       </c>
-      <c r="AC29" s="4">
-        <f>+AC23/AC15</f>
+      <c r="AC29" s="3">
+        <f t="shared" si="46"/>
         <v>0.18618736538987851</v>
       </c>
-      <c r="AD29" s="4">
-        <f t="shared" ref="AD29:AR29" si="18">+AD23/AD15</f>
-        <v>0.18225527976666406</v>
-      </c>
-      <c r="AE29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.18640317051312794</v>
-      </c>
-      <c r="AF29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.19048803438174705</v>
-      </c>
-      <c r="AG29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.19450919721328136</v>
-      </c>
-      <c r="AH29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.19846598188907652</v>
-      </c>
-      <c r="AI29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.20235770826579658</v>
-      </c>
-      <c r="AJ29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.20618369310981233</v>
-      </c>
-      <c r="AK29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.20994325003123865</v>
-      </c>
-      <c r="AL29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.21363568941761674</v>
-      </c>
-      <c r="AM29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.21726031836723475</v>
-      </c>
-      <c r="AN29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.22081644062208217</v>
-      </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.22430335650043121</v>
-      </c>
-      <c r="AP29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.22772036282904112</v>
-      </c>
-      <c r="AQ29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.23106675287497849</v>
-      </c>
-      <c r="AR29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.23434181627704856</v>
-      </c>
-      <c r="AT29" s="4" t="s">
-        <v>110</v>
+      <c r="AD29" s="3">
+        <f t="shared" ref="AD29:AR29" si="47">+AD23/AD15</f>
+        <v>0.18436118244820512</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.19073013184560758</v>
+      </c>
+      <c r="AF29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.19715195125196641</v>
+      </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.20362671126664597</v>
+      </c>
+      <c r="AH29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.21015448343613577</v>
+      </c>
+      <c r="AI29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.21673534025447894</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.22336935516371839</v>
+      </c>
+      <c r="AK29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.23005660255436128</v>
+      </c>
+      <c r="AL29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.23679715776586094</v>
+      </c>
+      <c r="AM29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.24359109708711643</v>
+      </c>
+      <c r="AN29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.25043849775698984</v>
+      </c>
+      <c r="AO29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.25733943796484193</v>
+      </c>
+      <c r="AP29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.26429399685108462</v>
+      </c>
+      <c r="AQ29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.27130225450775208</v>
+      </c>
+      <c r="AR29" s="3">
+        <f t="shared" si="47"/>
+        <v>0.27836429197908857</v>
+      </c>
+      <c r="AT29" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="AU29" s="1">
         <f>+NPV(AU27,AD23:EO23)+Main!L6-Main!L7</f>
-        <v>263433.39845051256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:145" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+        <v>267959.51956983417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:145" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="4">
-        <f>+B22/B21</f>
+      <c r="B30" s="3">
+        <f t="shared" ref="B30:O30" si="48">+B22/B21</f>
         <v>0.18456852791878173</v>
       </c>
-      <c r="C30" s="4">
-        <f>+C22/C21</f>
+      <c r="C30" s="3">
+        <f t="shared" si="48"/>
         <v>0.19656940063091483</v>
       </c>
-      <c r="D30" s="4">
-        <f>+D22/D21</f>
+      <c r="D30" s="3">
+        <f t="shared" si="48"/>
         <v>0.17940876656472987</v>
       </c>
-      <c r="E30" s="4">
-        <f>+E22/E21</f>
+      <c r="E30" s="3">
+        <f t="shared" si="48"/>
         <v>0.16894977168949771</v>
       </c>
-      <c r="F30" s="4">
-        <f>+F22/F21</f>
+      <c r="F30" s="3">
+        <f t="shared" si="48"/>
         <v>0.21284479209551255</v>
       </c>
-      <c r="G30" s="4">
-        <f>+G22/G21</f>
+      <c r="G30" s="3">
+        <f t="shared" si="48"/>
         <v>0.18717948717948718</v>
       </c>
-      <c r="H30" s="4">
-        <f>+H22/H21</f>
+      <c r="H30" s="3">
+        <f t="shared" si="48"/>
         <v>0.21027013871988318</v>
       </c>
-      <c r="I30" s="4">
-        <f>+I22/I21</f>
+      <c r="I30" s="3">
+        <f t="shared" si="48"/>
         <v>0.20827142149579</v>
       </c>
-      <c r="J30" s="4">
-        <f>+J22/J21</f>
+      <c r="J30" s="3">
+        <f t="shared" si="48"/>
         <v>0.21979185041453519</v>
       </c>
-      <c r="K30" s="4">
-        <f>+K22/K21</f>
+      <c r="K30" s="3">
+        <f t="shared" si="48"/>
         <v>0.17720848056537103</v>
       </c>
-      <c r="L30" s="4">
-        <f>+L22/L21</f>
+      <c r="L30" s="3">
+        <f t="shared" si="48"/>
         <v>0.18748556915262063</v>
       </c>
-      <c r="M30" s="4">
-        <f>+M22/M21</f>
+      <c r="M30" s="3">
+        <f t="shared" si="48"/>
         <v>0.19236883942766295</v>
       </c>
-      <c r="N30" s="4">
-        <f>+N22/N21</f>
+      <c r="N30" s="3">
+        <f t="shared" si="48"/>
         <v>0.20231822971548999</v>
       </c>
-      <c r="O30" s="4">
-        <f>+O22/O21</f>
+      <c r="O30" s="3">
+        <f t="shared" si="48"/>
         <v>0.2112099644128114</v>
       </c>
-      <c r="U30" s="4">
-        <f>+U22/U21</f>
+      <c r="P30" s="3">
+        <f t="shared" ref="P30" si="49">+P22/P21</f>
+        <v>0.19496855345911951</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" ref="U30:AC30" si="50">+U22/U21</f>
         <v>0.23531896915927333</v>
       </c>
-      <c r="V30" s="4">
-        <f>+V22/V21</f>
+      <c r="V30" s="3">
+        <f t="shared" si="50"/>
         <v>0.209923925707628</v>
       </c>
-      <c r="W30" s="4">
-        <f>+W22/W21</f>
+      <c r="W30" s="3">
+        <f t="shared" si="50"/>
         <v>0.23956028761061948</v>
       </c>
-      <c r="X30" s="4">
-        <f>+X22/X21</f>
+      <c r="X30" s="3">
+        <f t="shared" si="50"/>
         <v>0.15528317211843756</v>
       </c>
-      <c r="Y30" s="4">
-        <f>+Y22/Y21</f>
+      <c r="Y30" s="3">
+        <f t="shared" si="50"/>
         <v>0.17738373603533386</v>
       </c>
-      <c r="Z30" s="4">
-        <f>+Z22/Z21</f>
+      <c r="Z30" s="3">
+        <f t="shared" si="50"/>
         <v>0.18614866792172971</v>
       </c>
-      <c r="AA30" s="4">
-        <f>+AA22/AA21</f>
+      <c r="AA30" s="3">
+        <f t="shared" si="50"/>
         <v>0.18375896700143471</v>
       </c>
-      <c r="AB30" s="4">
-        <f>+AB22/AB21</f>
+      <c r="AB30" s="3">
+        <f t="shared" si="50"/>
         <v>0.20441051738761662</v>
       </c>
-      <c r="AC30" s="4">
-        <f>+AC22/AC21</f>
+      <c r="AC30" s="3">
+        <f t="shared" si="50"/>
         <v>0.19486467016568901</v>
       </c>
-      <c r="AD30" s="4">
-        <f t="shared" ref="AD30:AR30" si="19">+AD22/AD21</f>
+      <c r="AD30" s="3">
+        <f t="shared" ref="AD30:AR30" si="51">+AD22/AD21</f>
         <v>0.2</v>
       </c>
-      <c r="AE30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AE30" s="3">
+        <f t="shared" si="51"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AF30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AF30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AG30" s="3">
+        <f t="shared" si="51"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AH30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AG30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AI30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AH30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AJ30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AI30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AK30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AJ30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AL30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AK30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AM30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AL30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AN30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AM30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AO30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AN30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AP30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AO30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AQ30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AP30" s="4">
-        <f t="shared" si="19"/>
+      <c r="AR30" s="3">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AQ30" s="4">
-        <f t="shared" si="19"/>
-        <v>0.2</v>
-      </c>
-      <c r="AR30" s="4">
-        <f t="shared" si="19"/>
-        <v>0.2</v>
-      </c>
-      <c r="AT30" s="4" t="s">
+      <c r="AT30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AU30" s="5">
+      <c r="AU30" s="4">
         <f>+AU29/Main!L4</f>
-        <v>112.34543559540796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:145" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AT31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU31" s="18">
+        <v>109.38016147025641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:145" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU31" s="16">
         <f>+AU30/Main!L3-1</f>
-        <v>-0.341584506854551</v>
-      </c>
-    </row>
-    <row r="32" spans="1:145" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+        <v>-0.34000988674195121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:145" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="7">
-        <f>+F15/B15-1</f>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:P32" si="52">+F15/B15-1</f>
         <v>1.3472317828695068E-2</v>
       </c>
-      <c r="G32" s="7">
-        <f>+G15/C15-1</f>
+      <c r="G32" s="6">
+        <f t="shared" si="52"/>
         <v>-8.5906552760941501E-3</v>
       </c>
-      <c r="H32" s="7">
-        <f>+H15/D15-1</f>
+      <c r="H32" s="6">
+        <f t="shared" si="52"/>
         <v>3.5447087353593698E-2</v>
       </c>
-      <c r="I32" s="7">
-        <f>+I15/E15-1</f>
+      <c r="I32" s="6">
+        <f t="shared" si="52"/>
         <v>5.3189853958493405E-2</v>
       </c>
-      <c r="J32" s="7">
-        <f>+J15/F15-1</f>
+      <c r="J32" s="6">
+        <f t="shared" si="52"/>
         <v>6.1080923733747294E-2</v>
       </c>
-      <c r="K32" s="7">
-        <f>+K15/G15-1</f>
+      <c r="K32" s="6">
+        <f t="shared" si="52"/>
         <v>3.2157127039907474E-2</v>
       </c>
-      <c r="L32" s="7">
-        <f>+L15/H15-1</f>
+      <c r="L32" s="6">
+        <f t="shared" si="52"/>
         <v>6.3284831572651967E-3</v>
       </c>
-      <c r="M32" s="7">
-        <f>+M15/I15-1</f>
+      <c r="M32" s="6">
+        <f t="shared" si="52"/>
         <v>-1.0217486498321771E-3</v>
       </c>
-      <c r="N32" s="7">
-        <f>+N15/J15-1</f>
+      <c r="N32" s="6">
+        <f t="shared" si="52"/>
         <v>-6.1268346211879043E-3</v>
       </c>
-      <c r="O32" s="7">
-        <f>+O15/K15-1</f>
+      <c r="O32" s="6">
+        <f t="shared" si="52"/>
         <v>2.0568070519098924E-2</v>
       </c>
-      <c r="U32" s="7" t="e">
-        <f>+U15/T15-1</f>
+      <c r="P32" s="6">
+        <f t="shared" si="52"/>
+        <v>-2.0747709829165628E-2</v>
+      </c>
+      <c r="U32" s="6" t="e">
+        <f t="shared" ref="U32:AC32" si="53">+U15/T15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V32" s="7">
-        <f>+V15/U15-1</f>
+      <c r="V32" s="6">
+        <f t="shared" si="53"/>
         <v>-3.6907150186067383E-3</v>
       </c>
-      <c r="W32" s="7">
-        <f>+W15/V15-1</f>
+      <c r="W32" s="6">
+        <f t="shared" si="53"/>
         <v>2.7267976267330685E-2</v>
       </c>
-      <c r="X32" s="7">
-        <f>+X15/W15-1</f>
+      <c r="X32" s="6">
+        <f t="shared" si="53"/>
         <v>1.2748384007660984E-2</v>
       </c>
-      <c r="Y32" s="7">
-        <f>+Y15/X15-1</f>
+      <c r="Y32" s="6">
+        <f t="shared" si="53"/>
         <v>4.8253649311506441E-2</v>
       </c>
-      <c r="Z32" s="7">
-        <f>+Z15/Y15-1</f>
+      <c r="Z32" s="6">
+        <f t="shared" si="53"/>
         <v>7.284002818886548E-2</v>
       </c>
-      <c r="AA32" s="7">
-        <f>+AA15/Z15-1</f>
+      <c r="AA32" s="6">
+        <f t="shared" si="53"/>
         <v>5.3456475472293041E-2</v>
       </c>
-      <c r="AB32" s="7">
-        <f>+AB15/AA15-1</f>
+      <c r="AB32" s="6">
+        <f t="shared" si="53"/>
         <v>2.268447503959492E-2</v>
       </c>
-      <c r="AC32" s="7">
-        <f>+AC15/AB15-1</f>
+      <c r="AC32" s="6">
+        <f t="shared" si="53"/>
         <v>2.4790868960807844E-2</v>
       </c>
-      <c r="AD32" s="7">
-        <f t="shared" ref="AD32:AR32" si="20">+AD15/AC15-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AE32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AF32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AG32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AH32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AI32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AJ32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AK32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AL32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AM32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AN32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AO32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AP32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AQ32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AR32" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000000027E-2</v>
+      <c r="AD32" s="6">
+        <f t="shared" ref="AD32:AR32" si="54">+AD15/AC15-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AE32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AF32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AG32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AH32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AI32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AJ32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AK32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AL32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AM32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AN32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AO32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AP32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AQ32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AR32" s="6">
+        <f t="shared" si="54"/>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="AC33" s="4"/>
+      <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N34" s="1">
         <f>+N35-N45</f>
@@ -4782,74 +4950,78 @@
         <f>+O35-O45</f>
         <v>-24457</v>
       </c>
+      <c r="P34" s="1">
+        <f>+P35-P45</f>
+        <v>-25025</v>
+      </c>
       <c r="AC34" s="1">
         <f>+O34</f>
         <v>-24457</v>
       </c>
       <c r="AD34" s="1">
         <f>+AC34+AD23</f>
-        <v>-8680.9519999999993</v>
+        <v>-8653.5999999999967</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" ref="AE34:AR34" si="21">+AD34+AE23</f>
-        <v>7938.190832000002</v>
+        <f t="shared" ref="AE34:AR34" si="55">+AD34+AE23</f>
+        <v>8022.7318400000095</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="21"/>
-        <v>25431.027878368011</v>
+        <f t="shared" si="55"/>
+        <v>25605.306532160022</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="21"/>
-        <v>43828.99829668086</v>
+        <f t="shared" si="55"/>
+        <v>44128.519080539874</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="21"/>
-        <v>63164.394543408787</v>
+        <f t="shared" si="55"/>
+        <v>63627.880747176729</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="21"/>
-        <v>83470.375592283584</v>
+        <f t="shared" si="55"/>
+        <v>84140.052225949621</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="21"/>
-        <v>104780.97980290662</v>
+        <f t="shared" si="55"/>
+        <v>105702.877748812</v>
       </c>
       <c r="AK34" s="1">
-        <f t="shared" si="21"/>
-        <v>127131.13739221948</v>
+        <f t="shared" si="55"/>
+        <v>128355.42014962071</v>
       </c>
       <c r="AL34" s="1">
-        <f t="shared" si="21"/>
-        <v>150556.68245836953</v>
+        <f t="shared" si="55"/>
+        <v>152137.99691145457</v>
       </c>
       <c r="AM34" s="1">
-        <f t="shared" si="21"/>
-        <v>175094.36450324711</v>
+        <f t="shared" si="55"/>
+        <v>177092.21722399691</v>
       </c>
       <c r="AN34" s="1">
-        <f t="shared" si="21"/>
-        <v>200781.85939654324</v>
+        <f t="shared" si="55"/>
+        <v>203261.02007825614</v>
       </c>
       <c r="AO34" s="1">
-        <f t="shared" si="21"/>
-        <v>227657.77972056711</v>
+        <f t="shared" si="55"/>
+        <v>230688.713426615</v>
       </c>
       <c r="AP34" s="1">
-        <f t="shared" si="21"/>
-        <v>255761.68443126424</v>
+        <f t="shared" si="55"/>
+        <v>259421.01443693554</v>
       </c>
       <c r="AQ34" s="1">
-        <f t="shared" si="21"/>
-        <v>285134.08776687778</v>
+        <f t="shared" si="55"/>
+        <v>289505.09087020089</v>
       </c>
       <c r="AR34" s="1">
-        <f t="shared" si="21"/>
-        <v>315816.46733148943</v>
+        <f t="shared" si="55"/>
+        <v>320989.60361194977</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N35" s="1">
         <v>12156</v>
@@ -4857,10 +5029,13 @@
       <c r="O35" s="1">
         <v>10230</v>
       </c>
+      <c r="P35" s="1">
+        <v>9116</v>
+      </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N36" s="1">
         <v>6314</v>
@@ -4868,10 +5043,13 @@
       <c r="O36" s="1">
         <v>6234</v>
       </c>
+      <c r="P36" s="1">
+        <v>6139</v>
+      </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N37" s="1">
         <v>7287</v>
@@ -4879,10 +5057,13 @@
       <c r="O37" s="1">
         <v>7020</v>
       </c>
+      <c r="P37" s="1">
+        <v>7400</v>
+      </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N38" s="1">
         <v>1692</v>
@@ -4890,10 +5071,13 @@
       <c r="O38" s="1">
         <v>2158</v>
       </c>
+      <c r="P38" s="1">
+        <v>1780</v>
+      </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N39" s="1">
         <v>22506</v>
@@ -4901,10 +5085,13 @@
       <c r="O39" s="1">
         <v>22074</v>
       </c>
+      <c r="P39" s="1">
+        <v>22728</v>
+      </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N40" s="1">
         <f>40970+22053</f>
@@ -4914,10 +5101,14 @@
         <f>39898+21833</f>
         <v>61731</v>
       </c>
+      <c r="P40" s="1">
+        <f>40476+21836</f>
+        <v>62312</v>
+      </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N41" s="1">
         <v>13503</v>
@@ -4925,23 +5116,30 @@
       <c r="O41" s="1">
         <v>13192</v>
       </c>
-    </row>
-    <row r="42" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" s="6">
+      <c r="P41" s="1">
+        <v>13508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" s="5">
         <f>+SUM(N35:N41)</f>
         <v>126481</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <f>+SUM(O35:O41)</f>
         <v>122639</v>
       </c>
+      <c r="P42" s="5">
+        <f>+SUM(P35:P41)</f>
+        <v>122983</v>
+      </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N43" s="1">
         <v>15350</v>
@@ -4949,10 +5147,13 @@
       <c r="O43" s="1">
         <v>14495</v>
       </c>
+      <c r="P43" s="1">
+        <v>14512</v>
+      </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N44" s="1">
         <v>10661</v>
@@ -4960,10 +5161,13 @@
       <c r="O44" s="1">
         <v>9879</v>
       </c>
+      <c r="P44" s="1">
+        <v>9847</v>
+      </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N45" s="1">
         <f>10409+25744</f>
@@ -4973,10 +5177,14 @@
         <f>9424+25263</f>
         <v>34687</v>
       </c>
+      <c r="P45" s="1">
+        <f>9889+24252</f>
+        <v>34141</v>
+      </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N46" s="1">
         <v>6420</v>
@@ -4984,10 +5192,13 @@
       <c r="O46" s="1">
         <v>6725</v>
       </c>
+      <c r="P46" s="1">
+        <v>6481</v>
+      </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N47" s="1">
         <v>5757</v>
@@ -4995,23 +5206,30 @@
       <c r="O47" s="1">
         <v>5411</v>
       </c>
-    </row>
-    <row r="48" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="6">
+      <c r="P47" s="1">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="5">
         <f>+SUM(N43:N47)</f>
         <v>74341</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="5">
         <f>+SUM(O43:O47)</f>
         <v>71197</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="5">
+        <f>+SUM(P43:P47)</f>
+        <v>70439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N49" s="1">
         <v>52141</v>
@@ -5019,10 +5237,13 @@
       <c r="O49" s="1">
         <v>51443</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="1">
+        <v>52545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N50" s="1">
         <f>+N49+N48</f>
@@ -5032,10 +5253,14 @@
         <f>+O49+O48</f>
         <v>122640</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="1">
+        <f>+P49+P48</f>
+        <v>122984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N52" s="1">
         <f>+SUM(K23:N23)</f>
@@ -5045,23 +5270,31 @@
         <f>+SUM(L23:O23)</f>
         <v>15542</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N53" s="4">
+      <c r="P52" s="1">
+        <f>+SUM(M23:P23)</f>
+        <v>15607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" s="3">
         <f>+N52/(N36+N37+N38+N39+N41)</f>
         <v>0.30731745351058437</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="3">
         <f>+O52/(O36+O37+O38+O39+O41)</f>
         <v>0.30668140021311024</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <f>+P52/(P36+P37+P38+P39+P41)</f>
+        <v>0.30272524488410435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N55" s="1">
         <f>+N23</f>
@@ -5071,10 +5304,14 @@
         <f>+O23</f>
         <v>4433</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="1">
+        <f>+P23</f>
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N56" s="1">
         <v>3987</v>
@@ -5083,10 +5320,14 @@
         <f>8646-N56</f>
         <v>4659</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="1">
+        <f>12439-SUM(N56:O56)</f>
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N57" s="1">
         <v>728</v>
@@ -5095,10 +5336,14 @@
         <f>1434-N57</f>
         <v>706</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="1">
+        <f>2124-SUM(N57:O57)</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N58" s="1">
         <v>105</v>
@@ -5107,10 +5352,14 @@
         <f>241-N58</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="1">
+        <f>364-SUM(N58:O58)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N59" s="1">
         <v>184</v>
@@ -5119,10 +5368,14 @@
         <f>221-N59</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="1">
+        <f>183-SUM(N59:O59)</f>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N60" s="1">
         <v>794</v>
@@ -5131,10 +5384,14 @@
         <f>787-N60</f>
         <v>-7</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="1">
+        <f>782-SUM(N60:O60)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N61" s="1">
         <v>0</v>
@@ -5143,10 +5400,13 @@
         <f>0-N61</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N62" s="1">
         <v>-134</v>
@@ -5155,10 +5415,14 @@
         <f>-262-N62</f>
         <v>-128</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="1">
+        <f>-79-SUM(N62:O62)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N63" s="1">
         <v>-188</v>
@@ -5167,10 +5431,14 @@
         <f>-170-N63</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="1">
+        <f>-409-SUM(N63:O63)</f>
+        <v>-239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N64" s="1">
         <v>-648</v>
@@ -5179,10 +5447,14 @@
         <f>-1157-N64</f>
         <v>-509</v>
       </c>
+      <c r="P64" s="1">
+        <f>-1666-SUM(N64:O64)</f>
+        <v>-509</v>
+      </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N65" s="1">
         <v>-558</v>
@@ -5191,10 +5463,14 @@
         <f>-748-N65</f>
         <v>-190</v>
       </c>
+      <c r="P65" s="1">
+        <f>-1125-SUM(N65:O65)</f>
+        <v>-377</v>
+      </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N66" s="1">
         <v>32</v>
@@ -5203,84 +5479,96 @@
         <f>135-N66</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J67" s="6">
+      <c r="P66" s="1">
+        <f>218-SUM(N66:O66)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" s="5">
         <v>4904</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <f>10004-J67</f>
         <v>5100</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="5">
         <f>14092-SUM(J67:K67)</f>
         <v>4088</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="5">
         <f>+AC67-SUM(J67:L67)</f>
         <v>5754</v>
       </c>
-      <c r="N67" s="6">
+      <c r="N67" s="5">
         <f>+SUM(N56:N66)</f>
         <v>4302</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="5">
         <f>+SUM(O56:O66)</f>
         <v>4825</v>
       </c>
-      <c r="AA67" s="6">
+      <c r="P67" s="5">
+        <f>+SUM(P56:P66)</f>
+        <v>3704</v>
+      </c>
+      <c r="AA67" s="5">
         <v>16723</v>
       </c>
-      <c r="AB67" s="6">
+      <c r="AB67" s="5">
         <v>16848</v>
       </c>
-      <c r="AC67" s="6">
+      <c r="AC67" s="5">
         <v>19846</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J69" s="6">
+    <row r="69" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="5">
         <v>-925</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <f>-1742-J69</f>
         <v>-817</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="5">
         <f>-2539-SUM(J69:K69)</f>
         <v>-797</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="5">
         <f>+AC69-SUM(J69:L69)</f>
         <v>-783</v>
       </c>
-      <c r="N69" s="6">
+      <c r="N69" s="5">
         <f>-993+45</f>
         <v>-948</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="5">
         <f>-1918+47-N69</f>
         <v>-923</v>
       </c>
-      <c r="AA69" s="6">
+      <c r="P69" s="5">
+        <f>-2777+64-SUM(N69:O69)</f>
+        <v>-842</v>
+      </c>
+      <c r="AA69" s="5">
         <v>-3156</v>
       </c>
-      <c r="AB69" s="6">
+      <c r="AB69" s="5">
         <v>-3062</v>
       </c>
-      <c r="AC69" s="6">
+      <c r="AC69" s="5">
         <v>-3322</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N70" s="1">
         <v>-6</v>
@@ -5289,10 +5577,14 @@
         <f>-6-N70</f>
         <v>0</v>
       </c>
+      <c r="P70" s="1">
+        <f>-11-SUM(N70:O70)</f>
+        <v>-5</v>
+      </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N71" s="1">
         <v>-154</v>
@@ -5301,10 +5593,14 @@
         <f>-153-N71</f>
         <v>1</v>
       </c>
+      <c r="P71" s="1">
+        <f>-33-SUM(N71:O71)</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N72" s="1">
         <f>+SUM(N69:N71)</f>
@@ -5314,10 +5610,14 @@
         <f>+SUM(O69:O71)</f>
         <v>-922</v>
       </c>
+      <c r="P72" s="1">
+        <f>+SUM(P69:P71)</f>
+        <v>-727</v>
+      </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N74" s="1">
         <v>-2445</v>
@@ -5326,10 +5626,14 @@
         <f>-4886-N74</f>
         <v>-2441</v>
       </c>
+      <c r="P74" s="1">
+        <f>-7319-SUM(N74:O74)</f>
+        <v>-2433</v>
+      </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N75" s="1">
         <f>4090-571-444-70</f>
@@ -5339,10 +5643,14 @@
         <f>5905-571-2705+995-1478-N75</f>
         <v>-859</v>
       </c>
+      <c r="P75" s="1">
+        <f>5905-3781-543+995-1478-SUM(N75:O75)</f>
+        <v>-1048</v>
+      </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N76" s="1">
         <v>-1939</v>
@@ -5351,10 +5659,14 @@
         <f>-4449-N76</f>
         <v>-2510</v>
       </c>
+      <c r="P76" s="1">
+        <f>-5800-SUM(N76:O76)</f>
+        <v>-1351</v>
+      </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N77" s="1">
         <v>745</v>
@@ -5363,10 +5675,14 @@
         <f>985-N77</f>
         <v>240</v>
       </c>
+      <c r="P77" s="1">
+        <f>1601-SUM(N77:O77)</f>
+        <v>616</v>
+      </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N78" s="1">
         <f>+SUM(N74:N77)</f>
@@ -5376,10 +5692,14 @@
         <f>+SUM(O74:O77)</f>
         <v>-5570</v>
       </c>
+      <c r="P78" s="1">
+        <f>+SUM(P74:P77)</f>
+        <v>-4216</v>
+      </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N79" s="1">
         <v>116</v>
@@ -5388,10 +5708,14 @@
         <f>-144-N79</f>
         <v>-260</v>
       </c>
+      <c r="P79" s="1">
+        <f>-22-SUM(N79:O79)</f>
+        <v>122</v>
+      </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N80" s="1">
         <f>+N67+N72+N78+N79</f>
@@ -5401,49 +5725,58 @@
         <f>+O67+O72+O78+O79</f>
         <v>-1927</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J82" s="6">
-        <f t="shared" ref="J82:M82" si="22">+J67+J69</f>
+      <c r="P80" s="1">
+        <f>+P67+P72+P78+P79</f>
+        <v>-1117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" ref="J82:M82" si="56">+J67+J69</f>
         <v>3979</v>
       </c>
-      <c r="K82" s="6">
-        <f t="shared" si="22"/>
+      <c r="K82" s="5">
+        <f t="shared" si="56"/>
         <v>4283</v>
       </c>
-      <c r="L82" s="6">
-        <f t="shared" si="22"/>
+      <c r="L82" s="5">
+        <f t="shared" si="56"/>
         <v>3291</v>
       </c>
-      <c r="M82" s="6">
-        <f t="shared" si="22"/>
+      <c r="M82" s="5">
+        <f t="shared" si="56"/>
         <v>4971</v>
       </c>
-      <c r="N82" s="6">
+      <c r="N82" s="5">
         <f>+N67+N69</f>
         <v>3354</v>
       </c>
-      <c r="O82" s="6">
+      <c r="O82" s="5">
         <f>+O67+O69</f>
         <v>3902</v>
       </c>
-      <c r="AA82" s="6">
-        <f t="shared" ref="AA82:AB82" si="23">+AA67+AA69</f>
+      <c r="P82" s="5">
+        <f>+P67+P69</f>
+        <v>2862</v>
+      </c>
+      <c r="AA82" s="5">
+        <f t="shared" ref="AA82:AB82" si="57">+AA67+AA69</f>
         <v>13567</v>
       </c>
-      <c r="AB82" s="6">
-        <f t="shared" si="23"/>
+      <c r="AB82" s="5">
+        <f t="shared" si="57"/>
         <v>13786</v>
       </c>
-      <c r="AC82" s="6">
+      <c r="AC82" s="5">
         <f>+AC67+AC69</f>
         <v>16524</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
